--- a/Plants_Linked_Filled_Master.xlsx
+++ b/Plants_Linked_Filled_Master.xlsx
@@ -10062,21 +10062,21 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PDFScraper.py            → 2025-05-29 22:53    Extracts plant data from the PDF guide</t>
+          <t>PDFScraper.py            → 2025-05-29 23:38    Extracts plant data from the PDF guide</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>GetLinks.py              → 2025-05-29 22:54    Finds official MBG &amp; WF URLs for each plant</t>
+          <t>GetLinks.py              → 2025-05-29 23:40    Finds official MBG &amp; WF URLs for each plant</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>FillMissingData.py       → 2025-05-29 22:56    Populates missing fields using those links</t>
+          <t>FillMissingData.py       → 2025-05-29 23:39    Populates missing fields using those links</t>
         </is>
       </c>
     </row>
@@ -10090,7 +10090,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Excelify2.py             → 2025-05-29 23:23    Creates formatted Excel output with filters &amp; highlights</t>
+          <t>Excelify2.py             → 2025-05-29 23:40    Creates formatted Excel output with filters &amp; highlights</t>
         </is>
       </c>
     </row>
@@ -10189,7 +10189,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A390"/>
+  <dimension ref="A1:A396"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10222,7 +10222,11 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr"/>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>import argparse</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -10296,1299 +10300,1299 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t># ─── Paths ───────────────────────────────────────────────────────────────</t>
+          <t># ─── CLI Arguments ────────────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>BASE = Path(__file__).resolve().parent  # directory where this script resides</t>
+          <t>parser = argparse.ArgumentParser(description="Extract plant data from a PDF guide.")</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>PDF_PATH = BASE / "Plant Guide 2025 Update.pdf"  # input PDF filename</t>
+          <t>parser.add_argument(</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>OUT_CSV = (</t>
+          <t xml:space="preserve">    "--in_pdf", default="Plant Guide 2025 Update.pdf", help="PDF input file"</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t xml:space="preserve">    BASE / "Plants_NeedLinks.csv"</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>)  # output CSV filename for data without links filled</t>
+          <t>parser.add_argument("--out_csv", default="Plants_NeedLinks.csv", help="CSV output file")</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>IMG_DIR = BASE / "pdf_images"  # directory where extracted images will be saved</t>
+          <t>args = parser.parse_args()</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>MAP_CSV = BASE / "image_map.csv"  # CSV that maps saved image files to plant entries</t>
-        </is>
-      </c>
+      <c r="A23" t="inlineStr"/>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t># ─── Paths ───────────────────────────────────────────────────────────────</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t># create the image directory if it doesn't already exist</t>
+          <t>BASE = Path(__file__).resolve().parent  # directory where this script resides</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>IMG_DIR.mkdir(exist_ok=True)</t>
+          <t>PDF_PATH = BASE / args.in_pdf</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr"/>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>OUT_CSV = BASE / args.out_csv</t>
+        </is>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t># ─── CSV Columns ─────────────────────────────────────────────────────────</t>
+          <t>IMG_DIR = BASE / "pdf_images"  # directory where extracted images will be saved</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t># the exact order and names of columns in our final CSV output</t>
+          <t>MAP_CSV = BASE / "image_map.csv"  # CSV that maps saved image files to plant entries</t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>COLUMNS = [</t>
-        </is>
-      </c>
+      <c r="A30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Page in PDF",</t>
+          <t># create the image directory if it doesn't already exist</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Plant Type",</t>
+          <t>IMG_DIR.mkdir(exist_ok=True)</t>
         </is>
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    "Key",</t>
-        </is>
-      </c>
+      <c r="A33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Botanical Name",</t>
+          <t># ─── CSV Columns ─────────────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Common Name",</t>
+          <t># the exact order and names of columns in our final CSV output</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Height (ft)",</t>
+          <t>COLUMNS = [</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Spread (ft)",</t>
+          <t xml:space="preserve">    "Page in PDF",</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Bloom Color",</t>
+          <t xml:space="preserve">    "Plant Type",</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Bloom Time",</t>
+          <t xml:space="preserve">    "Key",</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Sun",</t>
+          <t xml:space="preserve">    "Botanical Name",</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Water",</t>
+          <t xml:space="preserve">    "Common Name",</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Characteristics",</t>
+          <t xml:space="preserve">    "Height (ft)",</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Habitats",</t>
+          <t xml:space="preserve">    "Spread (ft)",</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Wildlife Benefits",</t>
+          <t xml:space="preserve">    "Bloom Color",</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Distribution",</t>
+          <t xml:space="preserve">    "Bloom Time",</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Link: Missouri Botanical Garden",</t>
+          <t xml:space="preserve">    "Sun",</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Link: Wildflower.org",</t>
+          <t xml:space="preserve">    "Water",</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>]</t>
+          <t xml:space="preserve">    "Characteristics",</t>
         </is>
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="inlineStr"/>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Habitats",</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t># ─── Regex Patterns ──────────────────────────────────────────────────────</t>
+          <t xml:space="preserve">    "Wildlife Benefits",</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t># pattern to match lines that look like botanical names (e.g., Genus species)</t>
+          <t xml:space="preserve">    "Distribution",</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>BOT_LINE_RE = re.compile(</t>
+          <t xml:space="preserve">    "Link: Missouri Botanical Garden",</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">    r"^[A-Z][A-Za-z×\-]+\s+[A-Za-z×\-]*[a-z][A-Za-z×\-]*(?:\s+[A-Za-z×\-]+){0,3}$"</t>
+          <t xml:space="preserve">    "Link: Wildflower.org",</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>]</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t># fallback pattern to find any two-word capitalized phrase in text</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>BOT_ANY_RE = re.compile(</t>
+          <t># ─── Regex Patterns ──────────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">    r"\b([A-Z][A-Za-z×\-]+ [A-Za-z×\-]*[a-z][A-Za-z×\-]*(?: [A-Za-z×\-]+){0,3})\b"</t>
+          <t># pattern to match lines that look like botanical names (e.g., Genus species)</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>BOT_LINE_RE = re.compile(</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t># words to ignore when guessing where the botanical name appears in the page text</t>
+          <t xml:space="preserve">    r"^[A-Z][A-Za-z×\-]+\s+[A-Za-z×\-]*[a-z][A-Za-z×\-]*(?:\s+[A-Za-z×\-]+){0,3}$"</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>STOPWORDS = {</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Plant Fact",</t>
+          <t># fallback pattern to find any two-word capitalized phrase in text</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Plant Fact Sheet",</t>
+          <t>BOT_ANY_RE = re.compile(</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Plant Symbol",</t>
+          <t xml:space="preserve">    r"\b([A-Z][A-Za-z×\-]+ [A-Za-z×\-]*[a-z][A-Za-z×\-]*(?: [A-Za-z×\-]+){0,3})\b"</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Plant Materials",</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Plant Materials Programs",</t>
+          <t># words to ignore when guessing where the botanical name appears in the page text</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Contributed by",</t>
+          <t>STOPWORDS = {</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>}</t>
+          <t xml:space="preserve">    "Plant Fact",</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t># pattern to extract height measurements in feet</t>
+          <t xml:space="preserve">    "Plant Fact Sheet",</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>HEIGHT_RE = re.compile(</t>
+          <t xml:space="preserve">    "Plant Symbol",</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">    r"height[^:;\n]*?(?:up to\s*)?([\d.]+)(?:\s*(?:[-–]|to)\s*([\d.]+))?\s*ft", re.I</t>
+          <t xml:space="preserve">    "Plant Materials",</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>)</t>
+          <t xml:space="preserve">    "Plant Materials Programs",</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t># pattern to extract spread (width) measurements in feet</t>
+          <t xml:space="preserve">    "Contributed by",</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>SPREAD_RE = re.compile(</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">    r"(?:spread|aerial spread)[^:;\n]*?(?:up to\s*)?([\d.]+)(?:\s*(?:[-–]|to)\s*([\d.]+))?\s*ft",</t>
+          <t># pattern to extract height measurements in feet</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">    re.I,</t>
+          <t>HEIGHT_RE = re.compile(</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
+          <t xml:space="preserve">    r"height[^:;\n]*?(?:up to\s*)?([\d.]+)(?:\s*(?:[-–]|to)\s*([\d.]+))?\s*ft", re.I</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
           <t>)</t>
         </is>
       </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t># ─── Utility Functions ───────────────────────────────────────────────────</t>
+          <t># pattern to extract spread (width) measurements in feet</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="inlineStr"/>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>SPREAD_RE = re.compile(</t>
+        </is>
+      </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    r"(?:spread|aerial spread)[^:;\n]*?(?:up to\s*)?([\d.]+)(?:\s*(?:[-–]|to)\s*([\d.]+))?\s*ft",</t>
+        </is>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>def clean(line: str) -&gt; str:</t>
+          <t xml:space="preserve">    re.I,</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Remove trailing commas, parentheses, or dashes and strip whitespace."""</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    return re.split(r"[,(–-]", line, 1)[0].strip()</t>
-        </is>
-      </c>
+      <c r="A83" t="inlineStr"/>
     </row>
     <row r="84">
-      <c r="A84" t="inlineStr"/>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t># ─── Utility Functions ───────────────────────────────────────────────────</t>
+        </is>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr"/>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>def is_all_caps_common(l: str) -&gt; bool:</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Return True if line is all-caps short phrase (likely a common name header)."""</t>
+          <t>def clean(line: str) -&gt; str:</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return bool(re.fullmatch(r"[A-Z][A-Z0-9\s\-]{1,}$", l)) and 1 &lt;= len(l.split()) &lt;= 5</t>
+          <t xml:space="preserve">    """Remove trailing commas, parentheses, or dashes and strip whitespace."""</t>
         </is>
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="inlineStr"/>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return re.split(r"[,(–-]", line, 1)[0].strip()</t>
+        </is>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>def guess_common(lines: List[str], bot_idx: int) -&gt; str:</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t>def is_all_caps_common(l: str) -&gt; bool:</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Find a common name near the botanical name index:</t>
+          <t xml:space="preserve">    """Return True if line is all-caps short phrase (likely a common name header)."""</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">    - look up to 5 lines above for an ALL CAPS line</t>
+          <t xml:space="preserve">    return bool(re.fullmatch(r"[A-Z][A-Z0-9\s\-]{1,}$", l)) and 1 &lt;= len(l.split()) &lt;= 5</t>
         </is>
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    - otherwise, take the first non-header line after the botanical name</t>
-        </is>
-      </c>
+      <c r="A95" t="inlineStr"/>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # check lines above for an all-caps candidate</t>
+          <t>def guess_common(lines: List[str], bot_idx: int) -&gt; str:</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for i in range(bot_idx - 1, max(-1, bot_idx - 6), -1):</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ln = lines[i]</t>
+          <t xml:space="preserve">    Find a common name near the botanical name index:</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if is_all_caps_common(ln) and all(sw not in ln for sw in STOPWORDS):</t>
+          <t xml:space="preserve">    - look up to 5 lines above for an ALL CAPS line</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">            return ln</t>
+          <t xml:space="preserve">    - otherwise, take the first non-header line after the botanical name</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # fallback: pick the next non-header line below</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for ln in lines[bot_idx + 1 :]:</t>
+          <t xml:space="preserve">    # check lines above for an all-caps candidate</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">        lower = ln.lower()</t>
+          <t xml:space="preserve">    for i in range(bot_idx - 1, max(-1, bot_idx - 6), -1):</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if any(</t>
+          <t xml:space="preserve">        ln = lines[i]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">            tag in lower for tag in ["plant symbol", "description", "contributed by"]</t>
+          <t xml:space="preserve">        if is_all_caps_common(ln) and all(sw not in ln for sw in STOPWORDS):</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ):</t>
+          <t xml:space="preserve">            return ln</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">            continue</t>
+          <t xml:space="preserve">    # fallback: pick the next non-header line below</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">        return ln</t>
+          <t xml:space="preserve">    for ln in lines[bot_idx + 1 :]:</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return ""</t>
+          <t xml:space="preserve">        lower = ln.lower()</t>
         </is>
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="inlineStr"/>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if any(</t>
+        </is>
+      </c>
     </row>
     <row r="112">
-      <c r="A112" t="inlineStr"/>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            tag in lower for tag in ["plant symbol", "description", "contributed by"]</t>
+        </is>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>def gen_key(bot_name: str, used: Set[str]) -&gt; str:</t>
+          <t xml:space="preserve">        ):</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">            continue</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Generate a short unique key from the botanical name initials,</t>
+          <t xml:space="preserve">        return ln</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t xml:space="preserve">    e.g., "Quercus rubra" -&gt; "QR" or "QR1" if "QR" already used.</t>
+          <t xml:space="preserve">    return ""</t>
         </is>
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A117" t="inlineStr"/>
     </row>
     <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    parts = bot_name.split()</t>
-        </is>
-      </c>
+      <c r="A118" t="inlineStr"/>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if len(parts) &lt; 2:</t>
+          <t>def gen_key(bot_name: str, used: Set[str]) -&gt; str:</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # if only one word, use first two letters</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">        base = "".join([w[0] for w in parts])[:2].upper() or "XX"</t>
+          <t xml:space="preserve">    Generate a short unique key from the botanical name initials,</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">    else:</t>
+          <t xml:space="preserve">    e.g., "Quercus rubra" -&gt; "QR" or "QR1" if "QR" already used.</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # use first letters of genus and species</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">        g, s = parts[:2]</t>
+          <t xml:space="preserve">    parts = bot_name.split()</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">        base = (g[0] + s[0]).upper()</t>
+          <t xml:space="preserve">    if len(parts) &lt; 2:</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">    suffix, i = "", 1</t>
+          <t xml:space="preserve">        # if only one word, use first two letters</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # avoid duplicates by appending numbers</t>
+          <t xml:space="preserve">        base = "".join([w[0] for w in parts])[:2].upper() or "XX"</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">    while base + suffix in used:</t>
+          <t xml:space="preserve">    else:</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">        suffix = str(i)</t>
+          <t xml:space="preserve">        # use first letters of genus and species</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">        i += 1</t>
+          <t xml:space="preserve">        g, s = parts[:2]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">    used.add(base + suffix)</t>
+          <t xml:space="preserve">        base = (g[0] + s[0]).upper()</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return base + suffix</t>
+          <t xml:space="preserve">    suffix, i = "", 1</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # avoid duplicates by appending numbers</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    while base + suffix in used:</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>def name_slug(text: str) -&gt; str:</t>
+          <t xml:space="preserve">        suffix = str(i)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """Convert text to lowercase underscore-separated slug for filenames."""</t>
+          <t xml:space="preserve">        i += 1</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return re.sub(r"[^a-z0-9]+", "_", text.lower()).strip("_")</t>
+          <t xml:space="preserve">    used.add(base + suffix)</t>
         </is>
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="inlineStr"/>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return base + suffix</t>
+        </is>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr"/>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr">
-        <is>
-          <t># ─── Hyperlink Extraction ────────────────────────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A140" t="inlineStr"/>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr"/>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>def name_slug(text: str) -&gt; str:</t>
+        </is>
+      </c>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """Convert text to lowercase underscore-separated slug for filenames."""</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>def extract_links_by_page(pdf_path: Path) -&gt; Dict[int, List[str]]:</t>
+          <t xml:space="preserve">    return re.sub(r"[^a-z0-9]+", "_", text.lower()).strip("_")</t>
         </is>
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A144" t="inlineStr"/>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Open the PDF with PyMuPDF, loop pages, extract all URIs (web links),</t>
-        </is>
-      </c>
+      <c r="A145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">    and return a dict mapping page number to list of unique links.</t>
+          <t># ─── Hyperlink Extraction ────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A147" t="inlineStr"/>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    doc = fitz.open(pdf_path)</t>
-        </is>
-      </c>
+      <c r="A148" t="inlineStr"/>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">    page_links: Dict[int, List[str]] = {}</t>
+          <t>def extract_links_by_page(pdf_path: Path) -&gt; Dict[int, List[str]]:</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for page_num, page in enumerate(doc, start=1):</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">        links = []</t>
+          <t xml:space="preserve">    Open the PDF with PyMuPDF, loop pages, extract all URIs (web links),</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for link in page.get_links():</t>
+          <t xml:space="preserve">    and return a dict mapping page number to list of unique links.</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">            uri = link.get("uri") or link.get("action", {}).get("uri")</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if uri:</t>
+          <t xml:space="preserve">    doc = fitz.open(pdf_path)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">                links.append(uri.strip())</t>
+          <t xml:space="preserve">    page_links: Dict[int, List[str]] = {}</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if links:</t>
+          <t xml:space="preserve">    for page_num, page in enumerate(doc, start=1):</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">            page_links[page_num] = list(set(links))  # dedupe</t>
+          <t xml:space="preserve">        links = []</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return page_links</t>
+          <t xml:space="preserve">        for link in page.get_links():</t>
         </is>
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="inlineStr"/>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            uri = link.get("uri") or link.get("action", {}).get("uri")</t>
+        </is>
+      </c>
     </row>
     <row r="160">
-      <c r="A160" t="inlineStr"/>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            if uri:</t>
+        </is>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t># ─── Plant Type Mapping by Page ─────────────────────────────────────────</t>
+          <t xml:space="preserve">                links.append(uri.strip())</t>
         </is>
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="inlineStr"/>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if links:</t>
+        </is>
+      </c>
     </row>
     <row r="163">
-      <c r="A163" t="inlineStr"/>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            page_links[page_num] = list(set(links))  # dedupe</t>
+        </is>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>def build_page_type_map(pdf_path: Path) -&gt; Dict[int, str]:</t>
+          <t xml:space="preserve">    return page_links</t>
         </is>
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A165" t="inlineStr"/>
     </row>
     <row r="166">
-      <c r="A166" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Identify section headings (e.g., "HERBACEOUS PERENNIALS").</t>
-        </is>
-      </c>
+      <c r="A166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Map every page in each section to its plant type label.</t>
+          <t># ─── Plant Type Mapping by Page ─────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A168" t="inlineStr"/>
     </row>
     <row r="169">
-      <c r="A169" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    headings = {</t>
-        </is>
-      </c>
+      <c r="A169" t="inlineStr"/>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "HERBACEOUS PERENNIALS": "Herbaceous, Perennial",</t>
+          <t>def build_page_type_map(pdf_path: Path) -&gt; Dict[int, str]:</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "FERNS": "Ferns",</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "GRASSES, SEDGES, AND RUSHES": "Grasses, Sedges, and Rushes",</t>
+          <t xml:space="preserve">    Identify section headings (e.g., "HERBACEOUS PERENNIALS").</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "SHRUBS": "Shrubs",</t>
+          <t xml:space="preserve">    Map every page in each section to its plant type label.</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "TREES": "Trees",</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">    headings = {</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">    title_pages: List[tuple[int, str]] = []</t>
+          <t xml:space="preserve">        "HERBACEOUS PERENNIALS": "Herbaceous, Perennial",</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # scan first two lines of each page for section titles</t>
+          <t xml:space="preserve">        "FERNS": "Ferns",</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">    with pdfplumber.open(pdf_path) as pdf:</t>
+          <t xml:space="preserve">        "GRASSES, SEDGES, AND RUSHES": "Grasses, Sedges, and Rushes",</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for idx, page in enumerate(pdf.pages, start=1):</t>
+          <t xml:space="preserve">        "SHRUBS": "Shrubs",</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">            lines = [ln.strip() for ln in (page.extract_text() or "").splitlines()]</t>
+          <t xml:space="preserve">        "TREES": "Trees",</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">            for line in lines[:2]:</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">                if line.upper() in headings:</t>
+          <t xml:space="preserve">    title_pages: List[tuple[int, str]] = []</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    title_pages.append((idx, headings[line.upper()]))</t>
+          <t xml:space="preserve">    # scan first two lines of each page for section titles</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    break</t>
+          <t xml:space="preserve">    with pdfplumber.open(pdf_path) as pdf:</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # build map: from the start of a section to the next section start</t>
+          <t xml:space="preserve">        for idx, page in enumerate(pdf.pages, start=1):</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">    page_type_map: Dict[int, str] = {}</t>
+          <t xml:space="preserve">            lines = [ln.strip() for ln in (page.extract_text() or "").splitlines()]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for i, (start_page, label) in enumerate(title_pages):</t>
+          <t xml:space="preserve">            for line in lines[:2]:</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">        end_page = title_pages[i + 1][0] if i + 1 &lt; len(title_pages) else float("inf")</t>
+          <t xml:space="preserve">                if line.upper() in headings:</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for p in range(start_page + 1, int(end_page)):</t>
+          <t xml:space="preserve">                    title_pages.append((idx, headings[line.upper()]))</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t xml:space="preserve">            page_type_map[p] = label</t>
+          <t xml:space="preserve">                    break</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # mark the heading page itself as skipped (empty type)</t>
+          <t xml:space="preserve">    # build map: from the start of a section to the next section start</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">        page_type_map[start_page] = ""</t>
+          <t xml:space="preserve">    page_type_map: Dict[int, str] = {}</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return page_type_map</t>
+          <t xml:space="preserve">    for i, (start_page, label) in enumerate(title_pages):</t>
         </is>
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="inlineStr"/>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        end_page = title_pages[i + 1][0] if i + 1 &lt; len(title_pages) else float("inf")</t>
+        </is>
+      </c>
     </row>
     <row r="195">
-      <c r="A195" t="inlineStr"/>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for p in range(start_page + 1, int(end_page)):</t>
+        </is>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t># ─── Extract Rows of Plant Data ───────────────────────────────────────────</t>
+          <t xml:space="preserve">            page_type_map[p] = label</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr"/>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        # mark the heading page itself as skipped (empty type)</t>
+        </is>
+      </c>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr"/>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        page_type_map[start_page] = ""</t>
+        </is>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>def extract_rows() -&gt; List[Dict[str, str]]:</t>
+          <t xml:space="preserve">    return page_type_map</t>
         </is>
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A200" t="inlineStr"/>
     </row>
     <row r="201">
-      <c r="A201" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Loop through every page, skip non-data pages,</t>
-        </is>
-      </c>
+      <c r="A201" t="inlineStr"/>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">    find botanical and common names, measurements, links,</t>
+          <t># ─── Extract Rows of Plant Data ───────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    generate a unique key, and collect a row dict.</t>
-        </is>
-      </c>
+      <c r="A203" t="inlineStr"/>
     </row>
     <row r="204">
-      <c r="A204" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A204" t="inlineStr"/>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">    rows: List[Dict[str, str]] = []</t>
+          <t>def extract_rows() -&gt; List[Dict[str, str]]:</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">    used_keys: Set[str] = set()</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">    page_type_map = build_page_type_map(PDF_PATH)</t>
+          <t xml:space="preserve">    Loop through every page, skip non-data pages,</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # skip pages that are section titles</t>
+          <t xml:space="preserve">    find botanical and common names, measurements, links,</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">    skip_pages = {p for p, t in page_type_map.items() if not t}</t>
+          <t xml:space="preserve">    generate a unique key, and collect a row dict.</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">    link_map = extract_links_by_page(PDF_PATH)</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="inlineStr"/>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    rows: List[Dict[str, str]] = []</t>
+        </is>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">    with pdfplumber.open(PDF_PATH) as pdf:</t>
+          <t xml:space="preserve">    used_keys: Set[str] = set()</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for idx, pg in enumerate(tqdm(pdf.pages, desc="Scanning PDF")):</t>
+          <t xml:space="preserve">    page_type_map = build_page_type_map(PDF_PATH)</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">            page_num = idx + 1</t>
+          <t xml:space="preserve">    # skip pages that are section titles</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if page_num in skip_pages:</t>
+          <t xml:space="preserve">    skip_pages = {p for p, t in page_type_map.items() if not t}</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t xml:space="preserve">                continue  # skip heading pages</t>
+          <t xml:space="preserve">    link_map = extract_links_by_page(PDF_PATH)</t>
         </is>
       </c>
     </row>
@@ -11598,35 +11602,35 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t xml:space="preserve">            text = pg.extract_text() or ""</t>
+          <t xml:space="preserve">    with pdfplumber.open(PDF_PATH) as pdf:</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t xml:space="preserve">            lines = [ln.strip() for ln in text.splitlines() if ln.strip()]</t>
+          <t xml:space="preserve">        for idx, pg in enumerate(tqdm(pdf.pages, desc="Scanning PDF")):</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">            bot_idx = None</t>
+          <t xml:space="preserve">            page_num = idx + 1</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">            bot_name = ""</t>
+          <t xml:space="preserve">            if page_num in skip_pages:</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">            com_name = ""</t>
+          <t xml:space="preserve">                continue  # skip heading pages</t>
         </is>
       </c>
     </row>
@@ -11636,691 +11640,691 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # try to find botanical name in the first 15 lines</t>
+          <t xml:space="preserve">            text = pg.extract_text() or ""</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t xml:space="preserve">            for i, ln in enumerate(lines[:15]):</t>
+          <t xml:space="preserve">            lines = [ln.strip() for ln in text.splitlines() if ln.strip()]</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">                cand = clean(ln)</t>
+          <t xml:space="preserve">            bot_idx = None</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t xml:space="preserve">                if any(sw in cand for sw in STOPWORDS):</t>
+          <t xml:space="preserve">            bot_name = ""</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    continue</t>
+          <t xml:space="preserve">            com_name = ""</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                if BOT_LINE_RE.match(cand):</t>
-        </is>
-      </c>
+      <c r="A229" t="inlineStr"/>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    bot_idx = i</t>
+          <t xml:space="preserve">            # try to find botanical name in the first 15 lines</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    bot_name = cand</t>
+          <t xml:space="preserve">            for i, ln in enumerate(lines[:15]):</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    com_name = guess_common(lines, bot_idx)</t>
+          <t xml:space="preserve">                cand = clean(ln)</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    break</t>
+          <t xml:space="preserve">                if any(sw in cand for sw in STOPWORDS):</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="inlineStr"/>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    continue</t>
+        </is>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # fallback: first two lines if they fit expected patterns</t>
+          <t xml:space="preserve">                if BOT_LINE_RE.match(cand):</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if bot_idx is None and len(lines) &gt;= 2:</t>
+          <t xml:space="preserve">                    bot_idx = i</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t xml:space="preserve">                possible_bot = clean(lines[0])</t>
+          <t xml:space="preserve">                    bot_name = cand</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t xml:space="preserve">                possible_com = clean(lines[1])</t>
+          <t xml:space="preserve">                    com_name = guess_common(lines, bot_idx)</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">                if BOT_LINE_RE.match(possible_bot):</t>
+          <t xml:space="preserve">                    break</t>
         </is>
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    bot_name = possible_bot</t>
-        </is>
-      </c>
+      <c r="A240" t="inlineStr"/>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    com_name = possible_com</t>
+          <t xml:space="preserve">            # fallback: first two lines if they fit expected patterns</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    bot_idx = 0</t>
+          <t xml:space="preserve">            if bot_idx is None and len(lines) &gt;= 2:</t>
         </is>
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="inlineStr"/>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                possible_bot = clean(lines[0])</t>
+        </is>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # last resort: search entire page for any two-word capitalized phrase</t>
+          <t xml:space="preserve">                possible_com = clean(lines[1])</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if not bot_name:</t>
+          <t xml:space="preserve">                if BOT_LINE_RE.match(possible_bot):</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t xml:space="preserve">                for m in BOT_ANY_RE.finditer(text):</t>
+          <t xml:space="preserve">                    bot_name = possible_bot</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    cand = clean(m.group(1))</t>
+          <t xml:space="preserve">                    com_name = possible_com</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    if any(sw in cand for sw in STOPWORDS):</t>
+          <t xml:space="preserve">                    bot_idx = 0</t>
         </is>
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                        continue</t>
-        </is>
-      </c>
+      <c r="A249" t="inlineStr"/>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    bot_name = cand</t>
+          <t xml:space="preserve">            # last resort: search entire page for any two-word capitalized phrase</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    com_name = guess_common(lines, 0)</t>
+          <t xml:space="preserve">            if not bot_name:</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    lines.insert(0, cand)  # ensure botanical name is first</t>
+          <t xml:space="preserve">                for m in BOT_ANY_RE.finditer(text):</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    break</t>
+          <t xml:space="preserve">                    cand = clean(m.group(1))</t>
         </is>
       </c>
     </row>
     <row r="254">
-      <c r="A254" t="inlineStr"/>
+      <c r="A254" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    if any(sw in cand for sw in STOPWORDS):</t>
+        </is>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if not bot_name:</t>
+          <t xml:space="preserve">                        continue</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">                continue  # skip pages without identifiable plant</t>
+          <t xml:space="preserve">                    bot_name = cand</t>
         </is>
       </c>
     </row>
     <row r="257">
-      <c r="A257" t="inlineStr"/>
+      <c r="A257" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    com_name = guess_common(lines, 0)</t>
+        </is>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # combine all lines for regex searching</t>
+          <t xml:space="preserve">                    lines.insert(0, cand)  # ensure botanical name is first</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">            body = "\n".join(lines)</t>
+          <t xml:space="preserve">                    break</t>
         </is>
       </c>
     </row>
     <row r="260">
-      <c r="A260" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            height = spread = ""</t>
-        </is>
-      </c>
+      <c r="A260" t="inlineStr"/>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # extract height</t>
+          <t xml:space="preserve">            if not bot_name:</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if m := HEIGHT_RE.search(body):</t>
+          <t xml:space="preserve">                continue  # skip pages without identifiable plant</t>
         </is>
       </c>
     </row>
     <row r="263">
-      <c r="A263" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                height = f"{m.group(1)} - {m.group(2)}" if m.group(2) else m.group(1)</t>
-        </is>
-      </c>
+      <c r="A263" t="inlineStr"/>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # extract spread</t>
+          <t xml:space="preserve">            # combine all lines for regex searching</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if m := SPREAD_RE.search(body):</t>
+          <t xml:space="preserve">            body = "\n".join(lines)</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">                spread = f"{m.group(1)} - {m.group(2)}" if m.group(2) else m.group(1)</t>
+          <t xml:space="preserve">            height = spread = ""</t>
         </is>
       </c>
     </row>
     <row r="267">
-      <c r="A267" t="inlineStr"/>
+      <c r="A267" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            # extract height</t>
+        </is>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # pick out MBG and WF links if present on this page</t>
+          <t xml:space="preserve">            if m := HEIGHT_RE.search(body):</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">            links = link_map.get(page_num, [])</t>
+          <t xml:space="preserve">                height = f"{m.group(1)} - {m.group(2)}" if m.group(2) else m.group(1)</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t xml:space="preserve">            mbg = next((l for l in links if "missouribotanicalgarden" in l.lower()), "")</t>
+          <t xml:space="preserve">            # extract spread</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve">            wf = next((l for l in links if "wildflower.org" in l.lower()), "")</t>
+          <t xml:space="preserve">            if m := SPREAD_RE.search(body):</t>
         </is>
       </c>
     </row>
     <row r="272">
-      <c r="A272" t="inlineStr"/>
+      <c r="A272" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                spread = f"{m.group(1)} - {m.group(2)}" if m.group(2) else m.group(1)</t>
+        </is>
+      </c>
     </row>
     <row r="273">
-      <c r="A273" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            # assemble a row dict with all columns</t>
-        </is>
-      </c>
+      <c r="A273" t="inlineStr"/>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">            row = {</t>
+          <t xml:space="preserve">            # pick out MBG and WF links if present on this page</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Page in PDF": str(page_num),</t>
+          <t xml:space="preserve">            links = link_map.get(page_num, [])</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Plant Type": page_type_map.get(page_num, ""),</t>
+          <t xml:space="preserve">            mbg = next((l for l in links if "missouribotanicalgarden" in l.lower()), "")</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Key": gen_key(bot_name, used_keys),</t>
+          <t xml:space="preserve">            wf = next((l for l in links if "wildflower.org" in l.lower()), "")</t>
         </is>
       </c>
     </row>
     <row r="278">
-      <c r="A278" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                "Botanical Name": bot_name,</t>
-        </is>
-      </c>
+      <c r="A278" t="inlineStr"/>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Common Name": com_name,</t>
+          <t xml:space="preserve">            # assemble a row dict with all columns</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Height (ft)": height,</t>
+          <t xml:space="preserve">            row = {</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Spread (ft)": spread,</t>
+          <t xml:space="preserve">                "Page in PDF": str(page_num),</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t xml:space="preserve">                # initialize other columns to empty strings</t>
+          <t xml:space="preserve">                "Plant Type": page_type_map.get(page_num, ""),</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t xml:space="preserve">                **{</t>
+          <t xml:space="preserve">                "Key": gen_key(bot_name, used_keys),</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    c: ""</t>
+          <t xml:space="preserve">                "Botanical Name": bot_name,</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    for c in COLUMNS</t>
+          <t xml:space="preserve">                "Common Name": com_name,</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    if c</t>
+          <t xml:space="preserve">                "Height (ft)": height,</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    not in {</t>
+          <t xml:space="preserve">                "Spread (ft)": spread,</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Page in PDF",</t>
+          <t xml:space="preserve">                # initialize other columns to empty strings</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Plant Type",</t>
+          <t xml:space="preserve">                **{</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Key",</t>
+          <t xml:space="preserve">                    c: ""</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Botanical Name",</t>
+          <t xml:space="preserve">                    for c in COLUMNS</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Common Name",</t>
+          <t xml:space="preserve">                    if c</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Height (ft)",</t>
+          <t xml:space="preserve">                    not in {</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Spread (ft)",</t>
+          <t xml:space="preserve">                        "Page in PDF",</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Link: Missouri Botanical Garden",</t>
+          <t xml:space="preserve">                        "Plant Type",</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        "Link: Wildflower.org",</t>
+          <t xml:space="preserve">                        "Key",</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    }</t>
+          <t xml:space="preserve">                        "Botanical Name",</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t xml:space="preserve">                },</t>
+          <t xml:space="preserve">                        "Common Name",</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Link: Missouri Botanical Garden": mbg,</t>
+          <t xml:space="preserve">                        "Height (ft)",</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Link: Wildflower.org": wf,</t>
+          <t xml:space="preserve">                        "Spread (ft)",</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t xml:space="preserve">            }</t>
+          <t xml:space="preserve">                        "Link: Missouri Botanical Garden",</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
         <is>
-          <t xml:space="preserve">            rows.append(row)</t>
+          <t xml:space="preserve">                        "Link: Wildflower.org",</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return rows</t>
+          <t xml:space="preserve">                    }</t>
         </is>
       </c>
     </row>
     <row r="304">
-      <c r="A304" t="inlineStr"/>
+      <c r="A304" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                },</t>
+        </is>
+      </c>
     </row>
     <row r="305">
-      <c r="A305" t="inlineStr"/>
+      <c r="A305" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Link: Missouri Botanical Garden": mbg,</t>
+        </is>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
         <is>
-          <t># ─── Extract Images from PDF and Map to Plants ───────────────────────────</t>
+          <t xml:space="preserve">                "Link: Wildflower.org": wf,</t>
         </is>
       </c>
     </row>
     <row r="307">
-      <c r="A307" t="inlineStr"/>
+      <c r="A307" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            }</t>
+        </is>
+      </c>
     </row>
     <row r="308">
-      <c r="A308" t="inlineStr"/>
+      <c r="A308" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            rows.append(row)</t>
+        </is>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
         <is>
-          <t>def extract_images(df: pd.DataFrame) -&gt; None:</t>
+          <t xml:space="preserve">    return rows</t>
         </is>
       </c>
     </row>
     <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A310" t="inlineStr"/>
     </row>
     <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    For each page with images,</t>
-        </is>
-      </c>
+      <c r="A311" t="inlineStr"/>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
         <is>
-          <t xml:space="preserve">    save all images to disk, record filename and plant mapping in a CSV,</t>
+          <t># ─── Extract Images from PDF and Map to Plants ───────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    then convert all PNGs to JPGs for smaller file size.</t>
-        </is>
-      </c>
+      <c r="A313" t="inlineStr"/>
     </row>
     <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A314" t="inlineStr"/>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
         <is>
-          <t xml:space="preserve">    doc = fitz.open(PDF_PATH)</t>
+          <t>def extract_images(df: pd.DataFrame) -&gt; None:</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
         <is>
-          <t xml:space="preserve">    image_rows = []</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # build a simple map from page number to plant names</t>
+          <t xml:space="preserve">    For each page with images,</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
         <is>
-          <t xml:space="preserve">    page_to_name = {</t>
+          <t xml:space="preserve">    save all images to disk, record filename and plant mapping in a CSV,</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
         <is>
-          <t xml:space="preserve">        int(r["Page in PDF"]): (r["Botanical Name"], r.get("Common Name", ""))</t>
+          <t xml:space="preserve">    then convert all PNGs to JPGs for smaller file size.</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for _, r in df.iterrows()</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if r.get("Page in PDF", "").isdigit()</t>
+          <t xml:space="preserve">    doc = fitz.open(PDF_PATH)</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">    image_rows = []</t>
         </is>
       </c>
     </row>
     <row r="323">
-      <c r="A323" t="inlineStr"/>
+      <c r="A323" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # build a simple map from page number to plant names</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
         <is>
-          <t xml:space="preserve">    page_image_count: Dict[str, int] = {}</t>
+          <t xml:space="preserve">    page_to_name = {</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for page_index, page in enumerate(doc, start=1):</t>
+          <t xml:space="preserve">        int(r["Page in PDF"]): (r["Botanical Name"], r.get("Common Name", ""))</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
         <is>
-          <t xml:space="preserve">        images = page.get_images(full=True)</t>
+          <t xml:space="preserve">        for _, r in df.iterrows()</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if not images:</t>
+          <t xml:space="preserve">        if r.get("Page in PDF", "").isdigit()</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
         <is>
-          <t xml:space="preserve">            continue  # skip pages without images</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
@@ -12330,389 +12334,427 @@
     <row r="330">
       <c r="A330" t="inlineStr">
         <is>
-          <t xml:space="preserve">        bot_name, com_name = page_to_name.get(page_index, ("Page {page_index}", ""))</t>
+          <t xml:space="preserve">    page_image_count: Dict[str, int] = {}</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
         <is>
-          <t xml:space="preserve">        base_name = name_slug(bot_name)</t>
+          <t xml:space="preserve">    for page_index, page in enumerate(doc, start=1):</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
         <is>
-          <t xml:space="preserve">        page_image_count.setdefault(base_name, 0)</t>
+          <t xml:space="preserve">        images = page.get_images(full=True)</t>
         </is>
       </c>
     </row>
     <row r="333">
-      <c r="A333" t="inlineStr"/>
+      <c r="A333" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if not images:</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for img_index, img in enumerate(images, start=1):</t>
+          <t xml:space="preserve">            continue  # skip pages without images</t>
         </is>
       </c>
     </row>
     <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            xref = img[0]  # internal reference number for the image</t>
-        </is>
-      </c>
+      <c r="A335" t="inlineStr"/>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
         <is>
-          <t xml:space="preserve">            pix = fitz.Pixmap(doc, xref)  # load the image as a pixmap</t>
+          <t xml:space="preserve">        bot_name, com_name = page_to_name.get(page_index, ("Page {page_index}", ""))</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
         <is>
-          <t xml:space="preserve">            count = page_image_count[base_name] + 1</t>
+          <t xml:space="preserve">        base_name = name_slug(bot_name)</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
         <is>
-          <t xml:space="preserve">            filename = f"{page_index:03d}_{base_name}_{count}.png"</t>
+          <t xml:space="preserve">        page_image_count.setdefault(base_name, 0)</t>
         </is>
       </c>
     </row>
     <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            output_path = IMG_DIR / filename</t>
-        </is>
-      </c>
+      <c r="A339" t="inlineStr"/>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # save as PNG or convert CMYK to RGB first</t>
+          <t xml:space="preserve">        for img_index, img in enumerate(images, start=1):</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if pix.n &lt; 5:</t>
+          <t xml:space="preserve">            xref = img[0]  # internal reference number for the image</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
         <is>
-          <t xml:space="preserve">                pix.save(output_path)</t>
+          <t xml:space="preserve">            pix = fitz.Pixmap(doc, xref)  # load the image as a pixmap</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
         <is>
-          <t xml:space="preserve">            else:</t>
+          <t xml:space="preserve">            count = page_image_count[base_name] + 1</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
         <is>
-          <t xml:space="preserve">                pix_rgb = fitz.Pixmap(fitz.csRGB, pix)</t>
+          <t xml:space="preserve">            filename = f"{page_index:03d}_{base_name}_{count}.png"</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
         <is>
-          <t xml:space="preserve">                pix_rgb.save(output_path)</t>
+          <t xml:space="preserve">            output_path = IMG_DIR / filename</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
         <is>
-          <t xml:space="preserve">                pix_rgb = None</t>
+          <t xml:space="preserve">            # save as PNG or convert CMYK to RGB first</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
         <is>
-          <t xml:space="preserve">            pix = None</t>
+          <t xml:space="preserve">            if pix.n &lt; 5:</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
         <is>
-          <t xml:space="preserve">            page_image_count[base_name] += 1</t>
+          <t xml:space="preserve">                pix.save(output_path)</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
         <is>
-          <t xml:space="preserve">            image_rows.append(</t>
+          <t xml:space="preserve">            else:</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
         <is>
-          <t xml:space="preserve">                {</t>
+          <t xml:space="preserve">                pix_rgb = fitz.Pixmap(fitz.csRGB, pix)</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    "Image Filename": filename,</t>
+          <t xml:space="preserve">                pix_rgb.save(output_path)</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    "Page Number": page_index,</t>
+          <t xml:space="preserve">                pix_rgb = None</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    "Botanical Name": bot_name,</t>
+          <t xml:space="preserve">            pix = None</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    "Common Name": com_name,</t>
+          <t xml:space="preserve">            page_image_count[base_name] += 1</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
         <is>
-          <t xml:space="preserve">                }</t>
+          <t xml:space="preserve">            image_rows.append(</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
         <is>
-          <t xml:space="preserve">            )</t>
+          <t xml:space="preserve">                {</t>
         </is>
       </c>
     </row>
     <row r="357">
-      <c r="A357" t="inlineStr"/>
+      <c r="A357" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    "Image Filename": filename,</t>
+        </is>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # write the image mapping CSV</t>
+          <t xml:space="preserve">                    "Page Number": page_index,</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
         <is>
-          <t xml:space="preserve">    pd.DataFrame(image_rows).to_csv(MAP_CSV, index=False)</t>
+          <t xml:space="preserve">                    "Botanical Name": bot_name,</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
         <is>
-          <t xml:space="preserve">    print(f"📸 Extracted {len(image_rows)} images to {IMG_DIR}")</t>
+          <t xml:space="preserve">                    "Common Name": com_name,</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
         <is>
-          <t xml:space="preserve">    print(f"🗂  Mapping written to {MAP_CSV}")</t>
+          <t xml:space="preserve">                }</t>
         </is>
       </c>
     </row>
     <row r="362">
-      <c r="A362" t="inlineStr"/>
+      <c r="A362" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            )</t>
+        </is>
+      </c>
     </row>
     <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    # convert all saved PNGs into JPEGs for compatibility and smaller size</t>
-        </is>
-      </c>
+      <c r="A363" t="inlineStr"/>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
         <is>
-          <t xml:space="preserve">    jpeg_dir = IMG_DIR / "jpeg"</t>
+          <t xml:space="preserve">    # write the image mapping CSV</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
         <is>
-          <t xml:space="preserve">    jpeg_dir.mkdir(exist_ok=True)</t>
+          <t xml:space="preserve">    pd.DataFrame(image_rows).to_csv(MAP_CSV, index=False)</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="inlineStr">
         <is>
-          <t xml:space="preserve">    converted = 0</t>
+          <t xml:space="preserve">    print(f"📸 Extracted {len(image_rows)} images to {IMG_DIR}")</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for png_file in IMG_DIR.glob("*.png"):</t>
+          <t xml:space="preserve">    print(f"🗂  Mapping written to {MAP_CSV}")</t>
         </is>
       </c>
     </row>
     <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        img = Image.open(png_file).convert("RGB")</t>
-        </is>
-      </c>
+      <c r="A368" t="inlineStr"/>
     </row>
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t xml:space="preserve">        jpg_file = jpeg_dir / (png_file.stem + ".jpg")</t>
+          <t xml:space="preserve">    # convert all saved PNGs into JPEGs for compatibility and smaller size</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t xml:space="preserve">        img.save(jpg_file, "JPEG", quality=85)</t>
+          <t xml:space="preserve">    jpeg_dir = IMG_DIR / "jpeg"</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t xml:space="preserve">        converted += 1</t>
+          <t xml:space="preserve">    jpeg_dir.mkdir(exist_ok=True)</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t xml:space="preserve">    print(f"📸 Converted {converted} PNG images to JPEGs in → {jpeg_dir}")</t>
+          <t xml:space="preserve">    converted = 0</t>
         </is>
       </c>
     </row>
     <row r="373">
-      <c r="A373" t="inlineStr"/>
+      <c r="A373" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for png_file in IMG_DIR.glob("*.png"):</t>
+        </is>
+      </c>
     </row>
     <row r="374">
-      <c r="A374" t="inlineStr"/>
+      <c r="A374" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        img = Image.open(png_file).convert("RGB")</t>
+        </is>
+      </c>
     </row>
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t># ─── Main Entry Point ────────────────────────────────────────────────────</t>
+          <t xml:space="preserve">        jpg_file = jpeg_dir / (png_file.stem + ".jpg")</t>
         </is>
       </c>
     </row>
     <row r="376">
-      <c r="A376" t="inlineStr"/>
+      <c r="A376" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        img.save(jpg_file, "JPEG", quality=85)</t>
+        </is>
+      </c>
     </row>
     <row r="377">
-      <c r="A377" t="inlineStr"/>
+      <c r="A377" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        converted += 1</t>
+        </is>
+      </c>
     </row>
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>def main() -&gt; None:</t>
+          <t xml:space="preserve">    print(f"📸 Converted {converted} PNG images to JPEGs in → {jpeg_dir}")</t>
         </is>
       </c>
     </row>
     <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """Run the full PDF scrape: rows first, then images."""</t>
-        </is>
-      </c>
+      <c r="A379" t="inlineStr"/>
     </row>
     <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    # extract data rows and write to CSV</t>
-        </is>
-      </c>
+      <c r="A380" t="inlineStr"/>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t xml:space="preserve">    df = pd.DataFrame(extract_rows(), columns=COLUMNS)</t>
+          <t># ─── Main Entry Point ────────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    df.to_csv(OUT_CSV, index=False, quoting=csv.QUOTE_MINIMAL)</t>
-        </is>
-      </c>
+      <c r="A382" t="inlineStr"/>
     </row>
     <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    print(f"✅ Saved → {OUT_CSV.name} ({len(df)} rows)")</t>
-        </is>
-      </c>
+      <c r="A383" t="inlineStr"/>
     </row>
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # extract images based on the CSV we just wrote</t>
+          <t>def main() -&gt; None:</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t xml:space="preserve">    extract_images(df)</t>
+          <t xml:space="preserve">    """Run the full PDF scrape: rows first, then images."""</t>
         </is>
       </c>
     </row>
     <row r="386">
-      <c r="A386" t="inlineStr"/>
+      <c r="A386" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # extract data rows and write to CSV</t>
+        </is>
+      </c>
     </row>
     <row r="387">
-      <c r="A387" t="inlineStr"/>
+      <c r="A387" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df = pd.DataFrame(extract_rows(), columns=COLUMNS)</t>
+        </is>
+      </c>
     </row>
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>if __name__ == "__main__":</t>
+          <t xml:space="preserve">    df.to_csv(OUT_CSV, index=False, quoting=csv.QUOTE_MINIMAL)</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t xml:space="preserve">    main()  # run the script if called directly</t>
+          <t xml:space="preserve">    print(f"✅ Saved → {OUT_CSV.name} ({len(df)} rows)")</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # extract images based on the CSV we just wrote</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    extract_images(df)</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>if __name__ == "__main__":</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    main()  # run the script if called directly</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
         <is>
           <t>```</t>
         </is>
@@ -12729,7 +12771,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A184"/>
+  <dimension ref="A1:A191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12828,106 +12870,102 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr"/>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>import argparse</t>
+        </is>
+      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t># ─── File and Column Settings ─────────────────────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>INPUT_CSV = "Plants_NeedLinks.csv"  # CSV from PDFScraper with empty link columns</t>
+          <t>parser = argparse.ArgumentParser(description="Find missing MBG/WF plant links")</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>OUTPUT_CSV = "Plants_Linked.csv"  # where we’ll save the updated CSV</t>
+          <t>parser.add_argument("--in_csv", default="Plants_NeedLinks.csv", help="Input CSV file")</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>MBG_COL = "Link: Missouri Botanical Garden"</t>
+          <t>parser.add_argument("--out_csv", default="Plants_Linked.csv", help="Output CSV file")</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>WF_COL = "Link: Wildflower.org"</t>
+          <t>args = parser.parse_args()</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>HEADERS = {</t>
-        </is>
-      </c>
+      <c r="A20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "User-Agent": "Mozilla/5.0 (X11; Linux x86_64)"</t>
+          <t># ─── File and Column Settings ─────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>}  # pretend to be a normal browser</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
     </row>
     <row r="23">
-      <c r="A23" t="inlineStr"/>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>INPUT_CSV = BASE / args.in_csv</t>
+        </is>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t># ─── Start a headless Chrome browser via Selenium ──────────────────────────</t>
+          <t>OUTPUT_CSV = BASE / args.out_csv</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>opt = Options()</t>
+          <t>MBG_COL = "Link: Missouri Botanical Garden"</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>opt.add_argument("--headless=new")  # run without opening a visible window</t>
+          <t>WF_COL = "Link: Wildflower.org"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>opt.add_argument("--disable-gpu")  # avoid GPU-related errors</t>
+          <t>HEADERS = {</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>opt.add_argument("--log-level=3")  # hide extra browser logs</t>
+          <t xml:space="preserve">    "User-Agent": "Mozilla/5.0 (X11; Linux x86_64)"</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>driver = webdriver.Chrome(options=opt)</t>
+          <t>}  # pretend to be a normal browser</t>
         </is>
       </c>
     </row>
@@ -12935,650 +12973,654 @@
       <c r="A30" t="inlineStr"/>
     </row>
     <row r="31">
-      <c r="A31" t="inlineStr"/>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t># ─── Start a headless Chrome browser via Selenium ──────────────────────────</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t># ─── Helper: Try an HTTP GET with retries ─────────────────────────────────</t>
+          <t>opt = Options()</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>def safe_get(url: str, retries=2, delay=2) -&gt; Optional[requests.Response]:</t>
+          <t>opt.add_argument("--headless=new")  # run without opening a visible window</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t>opt.add_argument("--disable-gpu")  # avoid GPU-related errors</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Try to fetch `url` up to (retries + 1) times using requests.</t>
+          <t>opt.add_argument("--log-level=3")  # hide extra browser logs</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Wait `delay` seconds between attempts.</t>
+          <t>driver = webdriver.Chrome(options=opt)</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    Return the Response object if successful, or None if all fail.</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for _ in range(retries + 1):</t>
+          <t># ─── Helper: Try an HTTP GET with retries ─────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">        try:</t>
+          <t>def safe_get(url: str, retries=2, delay=2) -&gt; Optional[requests.Response]:</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">            r = requests.get(url, headers=HEADERS, timeout=10)</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if r.ok:</t>
+          <t xml:space="preserve">    Try to fetch `url` up to (retries + 1) times using requests.</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">                return r</t>
+          <t xml:space="preserve">    Wait `delay` seconds between attempts.</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t xml:space="preserve">        except Exception:</t>
+          <t xml:space="preserve">    Return the Response object if successful, or None if all fail.</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t xml:space="preserve">            time.sleep(delay)</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return None  # give up after all retries</t>
+          <t xml:space="preserve">    for _ in range(retries + 1):</t>
         </is>
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="inlineStr"/>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        try:</t>
+        </is>
+      </c>
     </row>
     <row r="48">
-      <c r="A48" t="inlineStr"/>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            r = requests.get(url, headers=HEADERS, timeout=10)</t>
+        </is>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t># ─── Direct MBG Search via HTML ───────────────────────────────────────────</t>
+          <t xml:space="preserve">            if r.ok:</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>def query_mbg(name: str) -&gt; Optional[str]:</t>
+          <t xml:space="preserve">                return r</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        except Exception:</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Use Missouri Botanical Garden’s own search page (no JavaScript needed).</t>
+          <t xml:space="preserve">            time.sleep(delay)</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Return the link to the details page if found, else None.</t>
+          <t xml:space="preserve">    return None  # give up after all retries</t>
         </is>
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A54" t="inlineStr"/>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    base = "https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderSearchResults.aspx"</t>
-        </is>
-      </c>
+      <c r="A55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">    url = f"{base}?basic={quote_plus(name)}"</t>
+          <t># ─── Direct MBG Search via HTML ───────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if r := safe_get(url):</t>
+          <t>def query_mbg(name: str) -&gt; Optional[str]:</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">        soup = BeautifulSoup(r.text, "lxml")</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">        a = soup.select_one("a[href*='PlantFinderDetails.aspx']")</t>
+          <t xml:space="preserve">    Use Missouri Botanical Garden’s own search page (no JavaScript needed).</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if a and a.get("href"):</t>
+          <t xml:space="preserve">    Return the link to the details page if found, else None.</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">            return "https://www.missouribotanicalgarden.org" + a["href"]</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return None</t>
+          <t xml:space="preserve">    base = "https://www.missouribotanicalgarden.org/PlantFinder/PlantFinderSearchResults.aspx"</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr"/>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    url = f"{base}?basic={quote_plus(name)}"</t>
+        </is>
+      </c>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr"/>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if r := safe_get(url):</t>
+        </is>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t># ─── MBG Lookup via Bing + Selenium ────────────────────────────────────────</t>
+          <t xml:space="preserve">        soup = BeautifulSoup(r.text, "lxml")</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>def selenium_mbg_link(name: str) -&gt; Optional[str]:</t>
+          <t xml:space="preserve">        a = soup.select_one("a[href*='PlantFinderDetails.aspx']")</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        if a and a.get("href"):</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Open Bing search for '"name" site:missouribotanicalgarden.org',</t>
+          <t xml:space="preserve">            return "https://www.missouribotanicalgarden.org" + a["href"]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t xml:space="preserve">    then look for the first result pointing to a MBG details page.</t>
+          <t xml:space="preserve">    return None</t>
         </is>
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A70" t="inlineStr"/>
     </row>
     <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    query = f'"{name}" site:missouribotanicalgarden.org'</t>
-        </is>
-      </c>
+      <c r="A71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">    driver.get(f"https://www.bing.com/search?q={quote_plus(query)}")</t>
+          <t># ─── MBG Lookup via Bing + Selenium ────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">    time.sleep(1)  # let the page load</t>
+          <t>def selenium_mbg_link(name: str) -&gt; Optional[str]:</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # Find all result links and pick the first that matches</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for a in driver.find_elements(By.XPATH, '//li[@class="b_algo"]//a[@href]'):</t>
+          <t xml:space="preserve">    Open Bing search for '"name" site:missouribotanicalgarden.org',</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">        href = a.get_attribute("href")</t>
+          <t xml:space="preserve">    then look for the first result pointing to a MBG details page.</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if "PlantFinderDetails.aspx" in href:</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t xml:space="preserve">            return href</t>
+          <t xml:space="preserve">    query = f'"{name}" site:missouribotanicalgarden.org'</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return None</t>
+          <t xml:space="preserve">    driver.get(f"https://www.bing.com/search?q={quote_plus(query)}")</t>
         </is>
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="inlineStr"/>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    time.sleep(1)  # let the page load</t>
+        </is>
+      </c>
     </row>
     <row r="81">
-      <c r="A81" t="inlineStr"/>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # Find all result links and pick the first that matches</t>
+        </is>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t># ─── Wildflower.org Lookup via Bing + Selenium ────────────────────────────</t>
+          <t xml:space="preserve">    for a in driver.find_elements(By.XPATH, '//li[@class="b_algo"]//a[@href]'):</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>def selenium_wf_link(name: str) -&gt; Optional[str]:</t>
+          <t xml:space="preserve">        href = a.get_attribute("href")</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        if "PlantFinderDetails.aspx" in href:</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Similar to selenium_mbg_link, but search site:wildflower.org</t>
+          <t xml:space="preserve">            return href</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">    looking for the wildflower.org 'plants/result.php' pages.</t>
+          <t xml:space="preserve">    return None</t>
         </is>
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A87" t="inlineStr"/>
     </row>
     <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    query = f'"{name}" site:wildflower.org "plants/result.php"'</t>
-        </is>
-      </c>
+      <c r="A88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">    driver.get(f"https://www.bing.com/search?q={quote_plus(query)}")</t>
+          <t># ─── Wildflower.org Lookup via Bing + Selenium ────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">    time.sleep(1)</t>
+          <t>def selenium_wf_link(name: str) -&gt; Optional[str]:</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for a in driver.find_elements(By.XPATH, '//li[@class="b_algo"]//a[@href]'):</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">        href = a.get_attribute("href")</t>
+          <t xml:space="preserve">    Similar to selenium_mbg_link, but search site:wildflower.org</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if "wildflower.org/plants/result.php" in href:</t>
+          <t xml:space="preserve">    looking for the wildflower.org 'plants/result.php' pages.</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">            return href</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return None</t>
+          <t xml:space="preserve">    query = f'"{name}" site:wildflower.org "plants/result.php"'</t>
         </is>
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="inlineStr"/>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    driver.get(f"https://www.bing.com/search?q={quote_plus(query)}")</t>
+        </is>
+      </c>
     </row>
     <row r="97">
-      <c r="A97" t="inlineStr"/>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    time.sleep(1)</t>
+        </is>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t># ─── Prepare Different Name Variations ────────────────────────────────────</t>
+          <t xml:space="preserve">    for a in driver.find_elements(By.XPATH, '//li[@class="b_algo"]//a[@href]'):</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>def name_variants(row):</t>
+          <t xml:space="preserve">        href = a.get_attribute("href")</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        if "wildflower.org/plants/result.php" in href:</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Build a list of names to try in searches:</t>
+          <t xml:space="preserve">            return href</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t xml:space="preserve">      1) the full botanical name</t>
+          <t xml:space="preserve">    return None</t>
         </is>
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      2) the common name (if present)</t>
-        </is>
-      </c>
+      <c r="A103" t="inlineStr"/>
     </row>
     <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t xml:space="preserve">      3) just the genus + species (no subspecies)</t>
-        </is>
-      </c>
+      <c r="A104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">    This helps catch cases where the site might list a slightly different variant.</t>
+          <t># ─── Prepare Different Name Variations ────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t>def name_variants(row):</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">    names = [row["Botanical Name"]]</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if row.get("Common Name"):</t>
+          <t xml:space="preserve">    Build a list of names to try in searches:</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">        names.append(row["Common Name"])</t>
+          <t xml:space="preserve">      1) the full botanical name</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # take only the first two words of botanical name</t>
+          <t xml:space="preserve">      2) the common name (if present)</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">    names.append(" ".join(row["Botanical Name"].split()[:2]))</t>
+          <t xml:space="preserve">      3) just the genus + species (no subspecies)</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return list(dict.fromkeys(names))  # remove duplicates, keep order</t>
+          <t xml:space="preserve">    This helps catch cases where the site might list a slightly different variant.</t>
         </is>
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="inlineStr"/>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="114">
-      <c r="A114" t="inlineStr"/>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    names = [row["Botanical Name"]]</t>
+        </is>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t># ─── Check That the Page Title Matches the Plant ──────────────────────────</t>
+          <t xml:space="preserve">    if row.get("Common Name"):</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>def title_contains(botanical_name: str) -&gt; bool:</t>
+          <t xml:space="preserve">        names.append(row["Common Name"])</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    # take only the first two words of botanical name</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">    After navigating to a candidate page, ensure the browser’s title</t>
+          <t xml:space="preserve">    names.append(" ".join(row["Botanical Name"].split()[:2]))</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">    contains all parts of the botanical name (case-insensitive).</t>
+          <t xml:space="preserve">    return list(dict.fromkeys(names))  # remove duplicates, keep order</t>
         </is>
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    This avoids false positives.</t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr"/>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    """</t>
-        </is>
-      </c>
+      <c r="A121" t="inlineStr"/>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">    title = driver.title.lower()</t>
+          <t># ─── Check That the Page Title Matches the Plant ──────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return all(part.lower() in title for part in botanical_name.split())</t>
+          <t>def title_contains(botanical_name: str) -&gt; bool:</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="125">
-      <c r="A125" t="inlineStr"/>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    After navigating to a candidate page, ensure the browser’s title</t>
+        </is>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t># ─── Load CSV and Add Missing Columns ─────────────────────────────────────</t>
+          <t xml:space="preserve">    contains all parts of the botanical name (case-insensitive).</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>df = pd.read_csv(INPUT_CSV, dtype=str).fillna("")  # read in original CSV</t>
+          <t xml:space="preserve">    This avoids false positives.</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>for col in (MBG_COL, WF_COL):</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if col not in df.columns:</t>
+          <t xml:space="preserve">    title = driver.title.lower()</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">        df[col] = ""  # make sure link columns exist</t>
+          <t xml:space="preserve">    return all(part.lower() in title for part in botanical_name.split())</t>
         </is>
       </c>
     </row>
@@ -13586,44 +13628,40 @@
       <c r="A131" t="inlineStr"/>
     </row>
     <row r="132">
-      <c r="A132" t="inlineStr">
-        <is>
-          <t># ─── Main Loop: Fill in Missing Links ────────────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A132" t="inlineStr"/>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>for idx, row in df.iterrows():</t>
+          <t># ─── Load CSV and Add Missing Columns ─────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t xml:space="preserve">    bname = row["Botanical Name"]</t>
+          <t>df = pd.read_csv(INPUT_CSV, dtype=str).fillna("")  # read in original CSV</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cname = row.get("Common Name", "")</t>
+          <t>for col in (MBG_COL, WF_COL):</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">    have_mbg = "PlantFinderDetails.aspx" in row[MBG_COL]</t>
+          <t xml:space="preserve">    if col not in df.columns:</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">    have_wf = "wildflower.org/plants/result.php" in row[WF_COL]</t>
+          <t xml:space="preserve">        df[col] = ""  # make sure link columns exist</t>
         </is>
       </c>
     </row>
@@ -13633,304 +13671,349 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">    print(f"\n🔍 {bname} ({cname})")  # show progress</t>
+          <t># ─── Main Loop: Fill in Missing Links ────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="inlineStr"/>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>for idx, row in df.iterrows():</t>
+        </is>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # — MBG lookup: try Selenium first, then HTML fallback ——</t>
+          <t xml:space="preserve">    bname = row["Botanical Name"]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if not have_mbg:</t>
+          <t xml:space="preserve">    cname = row.get("Common Name", "")</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # 1) Selenium-based search</t>
+          <t xml:space="preserve">    have_mbg = "PlantFinderDetails.aspx" in row[MBG_COL]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for variant in name_variants(row):</t>
+          <t xml:space="preserve">    have_wf = "wildflower.org/plants/result.php" in row[WF_COL]</t>
         </is>
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            if link := selenium_mbg_link(variant):</t>
-        </is>
-      </c>
+      <c r="A145" t="inlineStr"/>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">                driver.get(link)</t>
+          <t xml:space="preserve">    print(f"\n🔍 {bname} ({cname})")  # show progress</t>
         </is>
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                time.sleep(1)</t>
-        </is>
-      </c>
+      <c r="A147" t="inlineStr"/>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t xml:space="preserve">                if title_contains(bname):</t>
+          <t xml:space="preserve">    # — MBG lookup: try Selenium first, then HTML fallback ——</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    df.at[idx, MBG_COL] = link</t>
+          <t xml:space="preserve">    if not have_mbg:</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    print(f"✅ MBG → {link}")</t>
+          <t xml:space="preserve">        # 1) Selenium-based search</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    break</t>
+          <t xml:space="preserve">        for variant in name_variants(row):</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">        else:</t>
+          <t xml:space="preserve">            if link := selenium_mbg_link(variant):</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">            # 2) Plain HTML-based query if Selenium did not find it</t>
+          <t xml:space="preserve">                driver.get(link)</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">            for variant in name_variants(row):</t>
+          <t xml:space="preserve">                time.sleep(1)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">                if link := query_mbg(variant):</t>
+          <t xml:space="preserve">                if title_contains(bname):</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    driver.get(link)</t>
+          <t xml:space="preserve">                    df.at[idx, MBG_COL] = link</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    time.sleep(1)</t>
+          <t xml:space="preserve">                    print(f"✅ MBG → {link}")</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    if title_contains(bname):</t>
+          <t xml:space="preserve">                    break</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        df.at[idx, MBG_COL] = link</t>
+          <t xml:space="preserve">        else:</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        print(f"✅ MBG (fallback) → {link}")</t>
+          <t xml:space="preserve">            # 2) Plain HTML-based query if Selenium did not find it</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        break</t>
+          <t xml:space="preserve">            for variant in name_variants(row):</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">            else:</t>
+          <t xml:space="preserve">                if link := query_mbg(variant):</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">                print("⚠️ MBG not found or invalid")</t>
+          <t xml:space="preserve">                    driver.get(link)</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    time.sleep(1)</t>
+        </is>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # — Wildflower.org lookup: only Selenium ——</t>
+          <t xml:space="preserve">                    if title_contains(bname):</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if not have_wf:</t>
+          <t xml:space="preserve">                        df.at[idx, MBG_COL] = link</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for variant in name_variants(row):</t>
+          <t xml:space="preserve">                        print(f"✅ MBG (fallback) → {link}")</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if link := selenium_wf_link(variant):</t>
+          <t xml:space="preserve">                        break</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">                driver.get(link)</t>
+          <t xml:space="preserve">            else:</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">                time.sleep(1)</t>
+          <t xml:space="preserve">                print("⚠️ MBG not found or invalid")</t>
         </is>
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                if title_contains(bname):</t>
-        </is>
-      </c>
+      <c r="A171" t="inlineStr"/>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    df.at[idx, WF_COL] = link</t>
+          <t xml:space="preserve">    # — Wildflower.org lookup: only Selenium ——</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    print(f"✅ WF  → {link}")</t>
+          <t xml:space="preserve">    if not have_wf:</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    break</t>
+          <t xml:space="preserve">        for variant in name_variants(row):</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">        else:</t>
+          <t xml:space="preserve">            if link := selenium_wf_link(variant):</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">            print("⚠️ WF not found or invalid")</t>
+          <t xml:space="preserve">                driver.get(link)</t>
         </is>
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="inlineStr"/>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                time.sleep(1)</t>
+        </is>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">    time.sleep(1.0)  # pause between rows for politeness</t>
+          <t xml:space="preserve">                if title_contains(bname):</t>
         </is>
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="inlineStr"/>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                    df.at[idx, WF_COL] = link</t>
+        </is>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t># ─── Wrap Up: save and close browser ──────────────────────────────────────</t>
+          <t xml:space="preserve">                    print(f"✅ WF  → {link}")</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>driver.quit()</t>
+          <t xml:space="preserve">                    break</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>df.to_csv(OUTPUT_CSV, index=False)</t>
+          <t xml:space="preserve">        else:</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
+          <t xml:space="preserve">            print("⚠️ WF not found or invalid")</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr"/>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    time.sleep(1.0)  # pause between rows for politeness</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr"/>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t># ─── Wrap Up: save and close browser ──────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>driver.quit()</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>df.to_csv(OUTPUT_CSV, index=False)</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
           <t>print(f"\n🎉 Done → {OUTPUT_CSV}")</t>
         </is>
       </c>
     </row>
-    <row r="184">
-      <c r="A184" t="inlineStr">
+    <row r="191">
+      <c r="A191" t="inlineStr">
         <is>
           <t>```</t>
         </is>
@@ -13947,7 +14030,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A281"/>
+  <dimension ref="A1:A289"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -14091,54 +14174,54 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="inlineStr"/>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>import argparse</t>
+        </is>
+      </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t># ─── File Paths &amp; Configuration ───────────────────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>BASE = Path(__file__).resolve().parent</t>
+          <t>parser = argparse.ArgumentParser(description="Fill missing plant fields using MBG/WF")</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>IN_CSV = BASE / "Plants_Linked.csv"  # input CSV must already have MBG and WF URLs</t>
+          <t>parser.add_argument("--in_csv", default="Plants_Linked.csv", help="Input CSV file")</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>OUT_CSV = BASE / "Plants_Linked_Filled.csv"  # output CSV with added data</t>
+          <t>parser.add_argument(</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>MASTER_CSV = IN_CSV  # template file to match column order</t>
+          <t xml:space="preserve">    "--out_csv", default="Plants_Linked_Filled.csv", help="Output CSV file"</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>SLEEP_BETWEEN = 0.7  # seconds to wait between each HTTP request</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>HEADERS = {"User-Agent": "Mozilla/5.0 (X11; Linux x86_64)"}  # identify as a browser</t>
+          <t>args = parser.parse_args()</t>
         </is>
       </c>
     </row>
@@ -14146,530 +14229,534 @@
       <c r="A29" t="inlineStr"/>
     </row>
     <row r="30">
-      <c r="A30" t="inlineStr"/>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t># ─── File Paths &amp; Configuration ───────────────────────────────────────────</t>
+        </is>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t># ─── Helper Function: Fetch HTML Safely ────────────────────────────────────</t>
+          <t>BASE = Path(__file__).resolve().parent</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>def fetch(url: str) -&gt; str | None:</t>
+          <t>IN_CSV = BASE / args.in_csv</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t>OUT_CSV = BASE / args.out_csv</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Try to download HTML from `url`. Return the page text if successful;</t>
+          <t>MASTER_CSV = IN_CSV  # template file to match column order</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t xml:space="preserve">    otherwise return None quietly on errors.</t>
+          <t>SLEEP_BETWEEN = 0.7  # seconds to wait between each HTTP request</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t>HEADERS = {"User-Agent": "Mozilla/5.0 (X11; Linux x86_64)"}  # identify as a browser</t>
         </is>
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    try:</t>
-        </is>
-      </c>
+      <c r="A37" t="inlineStr"/>
     </row>
     <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        r = requests.get(url, timeout=12, headers=HEADERS)  # attempt HTTP GET</t>
-        </is>
-      </c>
+      <c r="A38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if r.ok:</t>
+          <t># ─── Helper Function: Fetch HTML Safely ────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">            return r.text  # return the HTML body if status code is 200</t>
+          <t>def fetch(url: str) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    except requests.RequestException:</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">        pass  # ignore network errors, timeouts, etc.</t>
+          <t xml:space="preserve">    Try to download HTML from `url`. Return the page text if successful;</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return None  # return None if anything goes wrong</t>
+          <t xml:space="preserve">    otherwise return None quietly on errors.</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="inlineStr"/>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr"/>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    try:</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t># ─── Text Parsing Utilities ────────────────────────────────────────────────</t>
+          <t xml:space="preserve">        r = requests.get(url, timeout=12, headers=HEADERS)  # attempt HTTP GET</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>def grab(txt: str, label_pat: str) -&gt; str | None:</t>
+          <t xml:space="preserve">        if r.ok:</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">            return r.text  # return the HTML body if status code is 200</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Look for patterns like "Label: value" or "Label–value" in `txt`.</t>
+          <t xml:space="preserve">    except requests.RequestException:</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Return the captured `value` or None if not found.</t>
+          <t xml:space="preserve">        pass  # ignore network errors, timeouts, etc.</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    return None  # return None if anything goes wrong</t>
         </is>
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    # regex uses case‑insensitive match of the label pattern, then a colon/dash, then the text</t>
-        </is>
-      </c>
+      <c r="A52" t="inlineStr"/>
     </row>
     <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    m = re.search(rf"(?:{label_pat})\s*[:–-]\s*(.+?)(?:\n|$)", txt, flags=re.I)</t>
-        </is>
-      </c>
+      <c r="A53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return m.group(1).strip() if m else None</t>
+          <t># ─── Text Parsing Utilities ────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="inlineStr"/>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>def grab(txt: str, label_pat: str) -&gt; str | None:</t>
+        </is>
+      </c>
     </row>
     <row r="56">
-      <c r="A56" t="inlineStr"/>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>def rng(s: str | None) -&gt; str | None:</t>
+          <t xml:space="preserve">    Look for patterns like "Label: value" or "Label–value" in `txt`.</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    Return the captured `value` or None if not found.</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Normalize ranges like "1–3 ft" or "1 to 3 ft" into "1 - 3".</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Returns None if input is empty or no numbers found.</t>
+          <t xml:space="preserve">    # regex uses case‑insensitive match of the label pattern, then a colon/dash, then the text</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    m = re.search(rf"(?:{label_pat})\s*[:–-]\s*(.+?)(?:\n|$)", txt, flags=re.I)</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if not s:</t>
+          <t xml:space="preserve">    return m.group(1).strip() if m else None</t>
         </is>
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        return None</t>
-        </is>
-      </c>
+      <c r="A63" t="inlineStr"/>
     </row>
     <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    s = s.replace("–", "-")  # unify dash characters</t>
-        </is>
-      </c>
+      <c r="A64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t xml:space="preserve">    nums = re.findall(r"[\d.]+", s)  # extract all numbers</t>
+          <t>def rng(s: str | None) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # convert floats that are whole ints into int strings</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t xml:space="preserve">    nums = [str(int(float(n))) if float(n).is_integer() else n for n in nums]</t>
+          <t xml:space="preserve">    Normalize ranges like "1–3 ft" or "1 to 3 ft" into "1 - 3".</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return " - ".join(nums) if nums else None</t>
+          <t xml:space="preserve">    Returns None if input is empty or no numbers found.</t>
         </is>
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="inlineStr"/>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="70">
-      <c r="A70" t="inlineStr"/>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not s:</t>
+        </is>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>def month_rng(s: str | None) -&gt; str | None:</t>
+          <t xml:space="preserve">        return None</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    s = s.replace("–", "-")  # unify dash characters</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Convert month ranges like "Jan–Mar" or "Feb through Apr"</t>
+          <t xml:space="preserve">    nums = re.findall(r"[\d.]+", s)  # extract all numbers</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t xml:space="preserve">    into comma-separated full months "Jan, Feb, Mar, Apr".</t>
+          <t xml:space="preserve">    # convert floats that are whole ints into int strings</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    nums = [str(int(float(n))) if float(n).is_integer() else n for n in nums]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if not s:</t>
+          <t xml:space="preserve">    return " - ".join(nums) if nums else None</t>
         </is>
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        return None</t>
-        </is>
-      </c>
+      <c r="A77" t="inlineStr"/>
     </row>
     <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    # replace words like "to" or "through" with a hyphen</t>
-        </is>
-      </c>
+      <c r="A78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">    s = re.sub(r"\b(?:to|through)\b", "-", s, flags=re.I)</t>
+          <t>def month_rng(s: str | None) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parts = [w.title().strip() for w in re.split(r"[,/\-]", s) if w.strip()]</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return ", ".join(parts)</t>
+          <t xml:space="preserve">    Convert month ranges like "Jan–Mar" or "Feb through Apr"</t>
         </is>
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="inlineStr"/>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    into comma-separated full months "Jan, Feb, Mar, Apr".</t>
+        </is>
+      </c>
     </row>
     <row r="83">
-      <c r="A83" t="inlineStr"/>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>def split_conditions(s: str | None) -&gt; list[str]:</t>
+          <t xml:space="preserve">    if not s:</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        return None</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Break strings like "full sun to part shade" or "dry/moist"</t>
+          <t xml:space="preserve">    # replace words like "to" or "through" with a hyphen</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t xml:space="preserve">    into a clean list of individual conditions.</t>
+          <t xml:space="preserve">    s = re.sub(r"\b(?:to|through)\b", "-", s, flags=re.I)</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    parts = [w.title().strip() for w in re.split(r"[,/\-]", s) if w.strip()]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if not s:</t>
+          <t xml:space="preserve">    return ", ".join(parts)</t>
         </is>
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        return []</t>
-        </is>
-      </c>
+      <c r="A90" t="inlineStr"/>
     </row>
     <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    # replace common separators with commas, then split</t>
-        </is>
-      </c>
+      <c r="A91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">    s = s.replace(" to ", ",").replace("–", ",").replace("/", ",")</t>
+          <t>def split_conditions(s: str | None) -&gt; list[str]:</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return [part.strip() for part in s.split(",") if part.strip()]</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="inlineStr"/>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Break strings like "full sun to part shade" or "dry/moist"</t>
+        </is>
+      </c>
     </row>
     <row r="95">
-      <c r="A95" t="inlineStr"/>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    into a clean list of individual conditions.</t>
+        </is>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>def sun_conditions(s: str | None) -&gt; str | None:</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    if not s:</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Standardize sun exposure terms to Title Case, comma-separated.</t>
+          <t xml:space="preserve">        return []</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    # replace common separators with commas, then split</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return ", ".join(p.title() for p in split_conditions(s)) if s else None</t>
+          <t xml:space="preserve">    s = s.replace(" to ", ",").replace("–", ",").replace("/", ",")</t>
         </is>
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="inlineStr"/>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return [part.strip() for part in s.split(",") if part.strip()]</t>
+        </is>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr"/>
     </row>
     <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>def water_conditions(s: str | None) -&gt; str | None:</t>
-        </is>
-      </c>
+      <c r="A103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t>def sun_conditions(s: str | None) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Standardize water needs to lowercase, comma-separated.</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    Standardize sun exposure terms to Title Case, comma-separated.</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return ", ".join(p.lower() for p in split_conditions(s)) if s else None</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr"/>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    return ", ".join(p.title() for p in split_conditions(s)) if s else None</t>
+        </is>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr"/>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>def mbg_chars(tolerate: str | None, maintenance: str | None) -&gt; str | None:</t>
-        </is>
-      </c>
+      <c r="A110" t="inlineStr"/>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t>def water_conditions(s: str | None) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Combine MBG’s "Tolerate" and "Maintenance" fields into one string,</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">    separated by " | ".</t>
+          <t xml:space="preserve">    Standardize water needs to lowercase, comma-separated.</t>
         </is>
       </c>
     </row>
@@ -14683,1071 +14770,1071 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parts = []</t>
+          <t xml:space="preserve">    return ", ".join(p.lower() for p in split_conditions(s)) if s else None</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if tolerate:</t>
-        </is>
-      </c>
+      <c r="A116" t="inlineStr"/>
     </row>
     <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        parts.append(f"Tolerate: {tolerate}")</t>
-        </is>
-      </c>
+      <c r="A117" t="inlineStr"/>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if maintenance:</t>
+          <t>def mbg_chars(tolerate: str | None, maintenance: str | None) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t xml:space="preserve">        parts.append(f"Maintenance: {maintenance}")</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return " | ".join(parts) if parts else None</t>
+          <t xml:space="preserve">    Combine MBG’s "Tolerate" and "Maintenance" fields into one string,</t>
         </is>
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="inlineStr"/>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    separated by " | ".</t>
+        </is>
+      </c>
     </row>
     <row r="122">
-      <c r="A122" t="inlineStr"/>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>def wf_chars(leaf_retention: str | None, fruit_type: str | None) -&gt; str | None:</t>
+          <t xml:space="preserve">    parts = []</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    if tolerate:</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Combine Wildflower.org’s "Leaf Retention" and "Fruit Type" into one string.</t>
+          <t xml:space="preserve">        parts.append(f"Tolerate: {tolerate}")</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    if maintenance:</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parts = []</t>
+          <t xml:space="preserve">        parts.append(f"Maintenance: {maintenance}")</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if fruit_type:</t>
+          <t xml:space="preserve">    return " | ".join(parts) if parts else None</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        parts.append(f"Fruit Type: {fruit_type}")</t>
-        </is>
-      </c>
+      <c r="A129" t="inlineStr"/>
     </row>
     <row r="130">
-      <c r="A130" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if leaf_retention:</t>
-        </is>
-      </c>
+      <c r="A130" t="inlineStr"/>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t xml:space="preserve">        parts.append(f"Leaf Retention: {leaf_retention}")</t>
+          <t>def wf_chars(leaf_retention: str | None, fruit_type: str | None) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return " | ".join(parts) if parts else None</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="inlineStr"/>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    Combine Wildflower.org’s "Leaf Retention" and "Fruit Type" into one string.</t>
+        </is>
+      </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr"/>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    """</t>
+        </is>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>def merge_field(primary: str | None, secondary: str | None) -&gt; str | None:</t>
+          <t xml:space="preserve">    parts = []</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    if fruit_type:</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Merge two comma- or pipe-separated strings without duplicates,</t>
+          <t xml:space="preserve">        parts.append(f"Fruit Type: {fruit_type}")</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">    preserving the order they appear.</t>
+          <t xml:space="preserve">    if leaf_retention:</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        parts.append(f"Leaf Retention: {leaf_retention}")</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parts: list[str] = []</t>
+          <t xml:space="preserve">    return " | ".join(parts) if parts else None</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    for source in (primary, secondary):</t>
-        </is>
-      </c>
+      <c r="A141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        if source:</t>
-        </is>
-      </c>
+      <c r="A142" t="inlineStr"/>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t xml:space="preserve">            for p in re.split(r"[|,]", source):</t>
+          <t>def merge_field(primary: str | None, secondary: str | None) -&gt; str | None:</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t xml:space="preserve">                val = p.strip()</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t xml:space="preserve">                if val and val not in parts:</t>
+          <t xml:space="preserve">    Merge two comma- or pipe-separated strings without duplicates,</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    parts.append(val)</t>
+          <t xml:space="preserve">    preserving the order they appear.</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return ", ".join(parts) if parts else None</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="inlineStr"/>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    parts: list[str] = []</t>
+        </is>
+      </c>
     </row>
     <row r="149">
-      <c r="A149" t="inlineStr"/>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    for source in (primary, secondary):</t>
+        </is>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>def gen_key(botanical: str, used: set[str]) -&gt; str:</t>
+          <t xml:space="preserve">        if source:</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">            for p in re.split(r"[|,]", source):</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Create a simple unique key from the first letters of genus and species,</t>
+          <t xml:space="preserve">                val = p.strip()</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t xml:space="preserve">    appending numbers if needed to avoid duplicates.</t>
+          <t xml:space="preserve">                if val and val not in parts:</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">                    parts.append(val)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t xml:space="preserve">    parts = botanical.split()</t>
+          <t xml:space="preserve">    return ", ".join(parts) if parts else None</t>
         </is>
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    base = "".join(w[0] for w in parts[:2]).upper()</t>
-        </is>
-      </c>
+      <c r="A156" t="inlineStr"/>
     </row>
     <row r="157">
-      <c r="A157" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    suffix = ""</t>
-        </is>
-      </c>
+      <c r="A157" t="inlineStr"/>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t xml:space="preserve">    i = 1</t>
+          <t>def gen_key(botanical: str, used: set[str]) -&gt; str:</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t xml:space="preserve">    while base + suffix in used:</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t xml:space="preserve">        suffix = str(i)</t>
+          <t xml:space="preserve">    Create a simple unique key from the first letters of genus and species,</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t xml:space="preserve">        i += 1</t>
+          <t xml:space="preserve">    appending numbers if needed to avoid duplicates.</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t xml:space="preserve">    used.add(base + suffix)</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return base + suffix</t>
+          <t xml:space="preserve">    parts = botanical.split()</t>
         </is>
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="inlineStr"/>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    base = "".join(w[0] for w in parts[:2]).upper()</t>
+        </is>
+      </c>
     </row>
     <row r="165">
-      <c r="A165" t="inlineStr"/>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    suffix = ""</t>
+        </is>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t># ─── HTML Parsers for Each Site ──────────────────────────────────────────</t>
+          <t xml:space="preserve">    i = 1</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>def parse_mbg(html: str) -&gt; Dict[str, Optional[str]]:</t>
+          <t xml:space="preserve">    while base + suffix in used:</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        suffix = str(i)</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Extract MBG details: height, spread, sun, water, characteristics,</t>
+          <t xml:space="preserve">        i += 1</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t xml:space="preserve">    wildlife benefits, and distribution (hardiness zone).</t>
+          <t xml:space="preserve">    used.add(base + suffix)</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">    return base + suffix</t>
         </is>
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    soup = BeautifulSoup(html, "lxml")</t>
-        </is>
-      </c>
+      <c r="A172" t="inlineStr"/>
     </row>
     <row r="173">
-      <c r="A173" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    text = soup.get_text("\n", strip=True)</t>
-        </is>
-      </c>
+      <c r="A173" t="inlineStr"/>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return {</t>
+          <t># ─── HTML Parsers for Each Site ──────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Height (ft)": rng(grab(text, r"Height")),</t>
+          <t>def parse_mbg(html: str) -&gt; Dict[str, Optional[str]]:</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Spread (ft)": rng(grab(text, r"Spread")),</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Sun": sun_conditions(grab(text, r"Sun")),</t>
+          <t xml:space="preserve">    Extract MBG details: height, spread, sun, water, characteristics,</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Water": water_conditions(grab(text, r"Water")),</t>
+          <t xml:space="preserve">    wildlife benefits, and distribution (hardiness zone).</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Characteristics": mbg_chars(</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t xml:space="preserve">            grab(text, r"Tolerate"), grab(text, r"Maintenance")</t>
+          <t xml:space="preserve">    soup = BeautifulSoup(html, "lxml")</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ),</t>
+          <t xml:space="preserve">    text = soup.get_text("\n", strip=True)</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Wildlife Benefits": grab(text, r"Attracts"),</t>
+          <t xml:space="preserve">    return {</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Distribution": (</t>
+          <t xml:space="preserve">        "Height (ft)": rng(grab(text, r"Height")),</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t xml:space="preserve">            f"USDA Hardiness Zone {grab(text, r'Zone')}"</t>
+          <t xml:space="preserve">        "Spread (ft)": rng(grab(text, r"Spread")),</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if grab(text, r"Zone")</t>
+          <t xml:space="preserve">        "Sun": sun_conditions(grab(text, r"Sun")),</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t xml:space="preserve">            else None</t>
+          <t xml:space="preserve">        "Water": water_conditions(grab(text, r"Water")),</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t xml:space="preserve">        ),</t>
+          <t xml:space="preserve">        "Characteristics": mbg_chars(</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">            grab(text, r"Tolerate"), grab(text, r"Maintenance")</t>
         </is>
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="inlineStr"/>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        ),</t>
+        </is>
+      </c>
     </row>
     <row r="190">
-      <c r="A190" t="inlineStr"/>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        "Wildlife Benefits": grab(text, r"Attracts"),</t>
+        </is>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>def parse_wf(html: str, mbg_missing: bool = False) -&gt; Dict[str, Optional[str]]:</t>
+          <t xml:space="preserve">        "Distribution": (</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">            f"USDA Hardiness Zone {grab(text, r'Zone')}"</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t xml:space="preserve">    Extract Wildflower.org details: bloom color/time and habitats.</t>
+          <t xml:space="preserve">            if grab(text, r"Zone")</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t xml:space="preserve">    If MBG data is missing, also pull sun, water, benefits, and characteristics from WF.</t>
+          <t xml:space="preserve">            else None</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t xml:space="preserve">    """</t>
+          <t xml:space="preserve">        ),</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t xml:space="preserve">    soup = BeautifulSoup(html, "lxml")</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    text = soup.get_text("\n", strip=True)</t>
-        </is>
-      </c>
+      <c r="A197" t="inlineStr"/>
     </row>
     <row r="198">
-      <c r="A198" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    data = {</t>
-        </is>
-      </c>
+      <c r="A198" t="inlineStr"/>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Bloom Color": ", ".join(split_conditions(grab(text, r"Bloom Color"))),</t>
+          <t>def parse_wf(html: str, mbg_missing: bool = False) -&gt; Dict[str, Optional[str]]:</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Bloom Time": month_rng(grab(text, r"Bloom Time")),</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t xml:space="preserve">        "Habitats": grab(text, r"Native Habitat"),</t>
+          <t xml:space="preserve">    Extract Wildflower.org details: bloom color/time and habitats.</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t xml:space="preserve">    }</t>
+          <t xml:space="preserve">    If MBG data is missing, also pull sun, water, benefits, and characteristics from WF.</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if mbg_missing:</t>
+          <t xml:space="preserve">    """</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # fill core fields when MBG had no data</t>
+          <t xml:space="preserve">    soup = BeautifulSoup(html, "lxml")</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t xml:space="preserve">        data.update(</t>
+          <t xml:space="preserve">    text = soup.get_text("\n", strip=True)</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t xml:space="preserve">            {</t>
+          <t xml:space="preserve">    data = {</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Sun": sun_conditions(grab(text, r"Light Requirement")),</t>
+          <t xml:space="preserve">        "Bloom Color": ", ".join(split_conditions(grab(text, r"Bloom Color"))),</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Water": water_conditions(grab(text, r"Soil Moisture")),</t>
+          <t xml:space="preserve">        "Bloom Time": month_rng(grab(text, r"Bloom Time")),</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Wildlife Benefits": grab(text, r"Benefit"),</t>
+          <t xml:space="preserve">        "Habitats": grab(text, r"Native Habitat"),</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t xml:space="preserve">                "Characteristics": wf_chars(</t>
+          <t xml:space="preserve">    }</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    grab(text, r"Leaf Retention"), grab(text, r"Fruit Type")</t>
+          <t xml:space="preserve">    if mbg_missing:</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t xml:space="preserve">                ),</t>
+          <t xml:space="preserve">        # fill core fields when MBG had no data</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t xml:space="preserve">            }</t>
+          <t xml:space="preserve">        data.update(</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t xml:space="preserve">        )</t>
+          <t xml:space="preserve">            {</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t xml:space="preserve">    return data</t>
+          <t xml:space="preserve">                "Sun": sun_conditions(grab(text, r"Light Requirement")),</t>
         </is>
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="inlineStr"/>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Water": water_conditions(grab(text, r"Soil Moisture")),</t>
+        </is>
+      </c>
     </row>
     <row r="217">
-      <c r="A217" t="inlineStr"/>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                "Wildlife Benefits": grab(text, r"Benefit"),</t>
+        </is>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t># ─── Main Processing Loop ─────────────────────────────────────────────────</t>
+          <t xml:space="preserve">                "Characteristics": wf_chars(</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>def main() -&gt; None:</t>
+          <t xml:space="preserve">                    grab(text, r"Leaf Retention"), grab(text, r"Fruit Type")</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # load CSV into a DataFrame, ensuring all empty cells become blank strings</t>
+          <t xml:space="preserve">                ),</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t xml:space="preserve">    df = pd.read_csv(IN_CSV, dtype=str).fillna("")</t>
+          <t xml:space="preserve">            }</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # ensure a Key column exists for identifying rows uniquely</t>
+          <t xml:space="preserve">        )</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if "Key" not in df.columns:</t>
+          <t xml:space="preserve">    return data</t>
         </is>
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        df["Key"] = ""</t>
-        </is>
-      </c>
+      <c r="A224" t="inlineStr"/>
     </row>
     <row r="225">
-      <c r="A225" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    if "Botanical Name" not in df.columns:</t>
-        </is>
-      </c>
+      <c r="A225" t="inlineStr"/>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t xml:space="preserve">        raise ValueError("❌ Missing 'Botanical Name' column in input CSV.")</t>
+          <t># ─── Main Processing Loop ─────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="inlineStr"/>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>def main() -&gt; None:</t>
+        </is>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t xml:space="preserve">    used_keys = set(df["Key"].dropna())  # track already-used keys</t>
+          <t xml:space="preserve">    # load CSV into a DataFrame, ensuring all empty cells become blank strings</t>
         </is>
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="inlineStr"/>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df = pd.read_csv(IN_CSV, dtype=str).fillna("")</t>
+        </is>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # iterate each plant row with a progress bar</t>
+          <t xml:space="preserve">    # ensure a Key column exists for identifying rows uniquely</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for idx, row in tqdm(df.iterrows(), total=len(df), desc="Website Fill"):</t>
+          <t xml:space="preserve">    if "Key" not in df.columns:</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # skip rows without a botanical name</t>
+          <t xml:space="preserve">        df["Key"] = ""</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if not row.get("Botanical Name", "").strip():</t>
+          <t xml:space="preserve">    if "Botanical Name" not in df.columns:</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t xml:space="preserve">            continue</t>
+          <t xml:space="preserve">        raise ValueError("❌ Missing 'Botanical Name' column in input CSV.")</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        # generate a key if missing</t>
-        </is>
-      </c>
+      <c r="A235" t="inlineStr"/>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if not row.get("Key"):</t>
+          <t xml:space="preserve">    used_keys = set(df["Key"].dropna())  # track already-used keys</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="inlineStr">
-        <is>
-          <t xml:space="preserve">            df.at[idx, "Key"] = gen_key(row["Botanical Name"], used_keys)</t>
-        </is>
-      </c>
+      <c r="A237" t="inlineStr"/>
     </row>
     <row r="238">
-      <c r="A238" t="inlineStr"/>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # iterate each plant row with a progress bar</t>
+        </is>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # ── Fetch and parse MBG if URL exists ──────────────────────────</t>
+          <t xml:space="preserve">    for idx, row in tqdm(df.iterrows(), total=len(df), desc="Website Fill"):</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t xml:space="preserve">        mbg_url = row.get("Link: Missouri Botanical Garden", "").strip()</t>
+          <t xml:space="preserve">        # skip rows without a botanical name</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t xml:space="preserve">        mbg_data: Dict[str, Optional[str]] = {}</t>
+          <t xml:space="preserve">        if not row.get("Botanical Name", "").strip():</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if mbg_url.startswith("http"):</t>
+          <t xml:space="preserve">            continue</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t xml:space="preserve">            html = fetch(mbg_url)</t>
+          <t xml:space="preserve">        # generate a key if missing</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if html:</t>
+          <t xml:space="preserve">        if not row.get("Key"):</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t xml:space="preserve">                mbg_data = parse_mbg(html)</t>
+          <t xml:space="preserve">            df.at[idx, "Key"] = gen_key(row["Botanical Name"], used_keys)</t>
         </is>
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                for col, val in mbg_data.items():</t>
-        </is>
-      </c>
+      <c r="A246" t="inlineStr"/>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t xml:space="preserve">                    if val:</t>
+          <t xml:space="preserve">        # ── Fetch and parse MBG if URL exists ──────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        df.at[idx, col] = val</t>
+          <t xml:space="preserve">        mbg_url = row.get("Link: Missouri Botanical Garden", "").strip()</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t xml:space="preserve">                time.sleep(SLEEP_BETWEEN)</t>
+          <t xml:space="preserve">        mbg_data: Dict[str, Optional[str]] = {}</t>
         </is>
       </c>
     </row>
     <row r="250">
-      <c r="A250" t="inlineStr"/>
+      <c r="A250" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if mbg_url.startswith("http"):</t>
+        </is>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t xml:space="preserve">        # ── Fetch and parse WF, merging or filling missing ─────────────</t>
+          <t xml:space="preserve">            html = fetch(mbg_url)</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t xml:space="preserve">        wf_url = row.get("Link: Wildflower.org", "").strip()</t>
+          <t xml:space="preserve">            if html:</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if wf_url.startswith("http"):</t>
+          <t xml:space="preserve">                mbg_data = parse_mbg(html)</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t xml:space="preserve">            html = fetch(wf_url)</t>
+          <t xml:space="preserve">                for col, val in mbg_data.items():</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t xml:space="preserve">            if html:</t>
+          <t xml:space="preserve">                    if val:</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t xml:space="preserve">                wf_data = parse_wf(html, mbg_missing=not bool(mbg_data))</t>
+          <t xml:space="preserve">                        df.at[idx, col] = val</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t xml:space="preserve">                for col, val in wf_data.items():</t>
+          <t xml:space="preserve">                time.sleep(SLEEP_BETWEEN)</t>
         </is>
       </c>
     </row>
     <row r="258">
-      <c r="A258" t="inlineStr">
-        <is>
-          <t xml:space="preserve">                    if val:</t>
-        </is>
-      </c>
+      <c r="A258" t="inlineStr"/>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        # merge additive fields vs overwrite others</t>
+          <t xml:space="preserve">        # ── Fetch and parse WF, merging or filling missing ─────────────</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        if col in {</t>
+          <t xml:space="preserve">        wf_url = row.get("Link: Wildflower.org", "").strip()</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t xml:space="preserve">                            "Sun",</t>
+          <t xml:space="preserve">        if wf_url.startswith("http"):</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t xml:space="preserve">                            "Water",</t>
+          <t xml:space="preserve">            html = fetch(wf_url)</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t xml:space="preserve">                            "Wildlife Benefits",</t>
+          <t xml:space="preserve">            if html:</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t xml:space="preserve">                            "Characteristics",</t>
+          <t xml:space="preserve">                wf_data = parse_wf(html, mbg_missing=not bool(mbg_data))</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        }:</t>
+          <t xml:space="preserve">                for col, val in wf_data.items():</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t xml:space="preserve">                            df.at[idx, col] = merge_field(df.at[idx, col], val)</t>
+          <t xml:space="preserve">                    if val:</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t xml:space="preserve">                        else:</t>
+          <t xml:space="preserve">                        # merge additive fields vs overwrite others</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t xml:space="preserve">                            df.at[idx, col] = val</t>
+          <t xml:space="preserve">                        if col in {</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t xml:space="preserve">                time.sleep(SLEEP_BETWEEN)</t>
+          <t xml:space="preserve">                            "Sun",</t>
         </is>
       </c>
     </row>
     <row r="270">
-      <c r="A270" t="inlineStr"/>
+      <c r="A270" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                            "Water",</t>
+        </is>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # reorder columns to match original template, keeping extras at end</t>
+          <t xml:space="preserve">                            "Wildlife Benefits",</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t xml:space="preserve">    template = list(pd.read_csv(MASTER_CSV, nrows=0).columns)</t>
+          <t xml:space="preserve">                            "Characteristics",</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t xml:space="preserve">    df = df[template + [c for c in df.columns if c not in template]]</t>
+          <t xml:space="preserve">                        }:</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t xml:space="preserve">    # save out the newly filled CSV</t>
+          <t xml:space="preserve">                            df.at[idx, col] = merge_field(df.at[idx, col], val)</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t xml:space="preserve">    df.to_csv(OUT_CSV, index=False, quoting=csv.QUOTE_MINIMAL)</t>
+          <t xml:space="preserve">                        else:</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t xml:space="preserve">    print(f"✅ Saved → {OUT_CSV}")</t>
+          <t xml:space="preserve">                            df.at[idx, col] = val</t>
         </is>
       </c>
     </row>
     <row r="277">
-      <c r="A277" t="inlineStr"/>
+      <c r="A277" t="inlineStr">
+        <is>
+          <t xml:space="preserve">                time.sleep(SLEEP_BETWEEN)</t>
+        </is>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr"/>
@@ -15755,19 +15842,67 @@
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>if __name__ == "__main__":</t>
+          <t xml:space="preserve">    # reorder columns to match original template, keeping extras at end</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t xml:space="preserve">    main()  # run when executed as a script</t>
+          <t xml:space="preserve">    template = list(pd.read_csv(MASTER_CSV, nrows=0).columns)</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df = df[template + [c for c in df.columns if c not in template]]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    # save out the newly filled CSV</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    df.to_csv(OUT_CSV, index=False, quoting=csv.QUOTE_MINIMAL)</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print(f"✅ Saved → {OUT_CSV}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr"/>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr"/>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>if __name__ == "__main__":</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    main()  # run when executed as a script</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
         <is>
           <t>```</t>
         </is>
@@ -16386,7 +16521,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A146"/>
+  <dimension ref="A1:A156"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16471,889 +16606,955 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr"/>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>import argparse</t>
+        </is>
+      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t># ─── File Paths ───────────────────────────────────────────────────────────</t>
-        </is>
-      </c>
+      <c r="A13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>BASE = Path(__file__).resolve().parent</t>
+          <t>parser = argparse.ArgumentParser(description="Export formatted Excel from CSV")</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>CSV_FILE = BASE / "Plants_Linked_Filled_Master.csv"</t>
+          <t>parser.add_argument(</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>XLSX_FILE = CSV_FILE.with_suffix(".xlsx")</t>
+          <t xml:space="preserve">    "--in_csv", default="Plants_Linked_Filled_Master.csv", help="Input CSV file"</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr"/>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>)</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t># ─── Step 1: Load CSV and write it to a basic Excel file ────────────────</t>
+          <t>parser.add_argument(</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>df = pd.read_csv(CSV_FILE, dtype=str).fillna("")</t>
+          <t xml:space="preserve">    "--out_xlsx", default="Plants_Linked_Filled_Master.xlsx", help="Output Excel file"</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>df.to_excel(XLSX_FILE, index=False)</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>wb = load_workbook(XLSX_FILE)</t>
+          <t>args = parser.parse_args()</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>ws = wb.active</t>
-        </is>
-      </c>
+      <c r="A22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>ws.title = "Plant Data"</t>
+          <t># ─── File Paths ───────────────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="inlineStr"/>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>BASE = Path(__file__).resolve().parent</t>
+        </is>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t># ─── Step 2: Freeze header row, style headers, and auto-adjust column widths ───</t>
+          <t>CSV_FILE = BASE / args.in_csv</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>ws.freeze_panes = "A2"</t>
+          <t>XLSX_FILE = BASE / args.out_xlsx</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>HEADER_FILL = PatternFill(start_color="DDDDDD", end_color="DDDDDD", fill_type="solid")</t>
-        </is>
-      </c>
+      <c r="A27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>BOLD_FONT = Font(bold=True)</t>
+          <t># ─── Step 1: Load CSV and write it to a basic Excel file ────────────────</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>for cell in ws[1]:</t>
+          <t>df = pd.read_csv(CSV_FILE, dtype=str).fillna("")</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cell.fill = HEADER_FILL</t>
+          <t>df.to_excel(XLSX_FILE, index=False)</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t xml:space="preserve">    cell.font = BOLD_FONT</t>
+          <t>wb = load_workbook(XLSX_FILE)</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>for i, column_cells in enumerate(ws.columns, start=1):</t>
+          <t>ws = wb.active</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t xml:space="preserve">    max_length = max(len(str(cell.value or "")) for cell in column_cells)</t>
+          <t>ws.title = "Plant Data"</t>
         </is>
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ws.column_dimensions[get_column_letter(i)].width = min(max_length + 2, 50)</t>
-        </is>
-      </c>
+      <c r="A34" t="inlineStr"/>
     </row>
     <row r="35">
-      <c r="A35" t="inlineStr"/>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t># ─── Step 2: Freeze header row, style headers, and auto-adjust column widths ───</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t># ─── Step 3: Apply filters to specific columns ──────────────────────────────</t>
+          <t>ws.freeze_panes = "A2"</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>filter_cols = [</t>
+          <t>HEADER_FILL = PatternFill(start_color="DDDDDD", end_color="DDDDDD", fill_type="solid")</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Page in PDF",</t>
+          <t>BOLD_FONT = Font(bold=True)</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Plant Type",</t>
+          <t>for cell in ws[1]:</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Bloom Color",</t>
+          <t xml:space="preserve">    cell.fill = HEADER_FILL</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Sun",</t>
+          <t xml:space="preserve">    cell.font = BOLD_FONT</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Water",</t>
+          <t>for i, column_cells in enumerate(ws.columns, start=1):</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Characteristics",</t>
+          <t xml:space="preserve">    max_length = max(len(str(cell.value or "")) for cell in column_cells)</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>]</t>
+          <t xml:space="preserve">    ws.column_dimensions[get_column_letter(i)].width = min(max_length + 2, 50)</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>header = [cell.value for cell in ws[1]]</t>
-        </is>
-      </c>
+      <c r="A45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>filter_indices = [i + 1 for i, val in enumerate(header) if val in filter_cols]</t>
+          <t># ─── Step 3: Apply filters to specific columns ──────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>if filter_indices:</t>
+          <t>filter_cols = [</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t xml:space="preserve">    col_range = f"{get_column_letter(min(filter_indices))}1:{get_column_letter(max(filter_indices))}1"</t>
+          <t xml:space="preserve">    "Page in PDF",</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws.auto_filter.ref = col_range</t>
+          <t xml:space="preserve">    "Plant Type",</t>
         </is>
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="inlineStr"/>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    "Bloom Color",</t>
+        </is>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t># ─── Step 4: Highlight missing cells in red ────────────────────────────────</t>
+          <t xml:space="preserve">    "Sun",</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>RED = PatternFill(start_color="FFCCCC", end_color="FFCCCC", fill_type="solid")</t>
+          <t xml:space="preserve">    "Water",</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>for row_idx, row in enumerate(df.itertuples(index=False), start=2):</t>
+          <t xml:space="preserve">    "Characteristics",</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for col_idx, col_name in enumerate(header, start=1):</t>
+          <t>]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t xml:space="preserve">        cell = ws.cell(row=row_idx, column=col_idx)</t>
+          <t>header = [cell.value for cell in ws[1]]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if not cell.value or str(cell.value).strip() == "":</t>
+          <t>filter_indices = [i + 1 for i, val in enumerate(header) if val in filter_cols]</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t xml:space="preserve">            cell.fill = RED</t>
+          <t>if filter_indices:</t>
         </is>
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="inlineStr"/>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    col_range = f"{get_column_letter(min(filter_indices))}1:{get_column_letter(max(filter_indices))}1"</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t># ─── Step 5: README Sheet ─────────────────────────────────────────────────</t>
+          <t xml:space="preserve">    ws.auto_filter.ref = col_range</t>
         </is>
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>readme = wb.create_sheet("README")</t>
-        </is>
-      </c>
+      <c r="A60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>readme.sheet_properties.tabColor = "A9A9A9"</t>
+          <t># ─── Step 4: Highlight missing cells in red ────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>readme.column_dimensions["A"].width = 100</t>
+          <t>RED = PatternFill(start_color="FFCCCC", end_color="FFCCCC", fill_type="solid")</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>readme["A1"] = "🌿 Plant Database Export: Excel Legend and Process Notes"</t>
+          <t>for row_idx, row in enumerate(df.itertuples(index=False), start=2):</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>readme["A3"] = "Legend:"</t>
+          <t xml:space="preserve">    for col_idx, col_name in enumerate(header, start=1):</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>readme["A4"] = "🔴 Red: Missing value (empty cell)"</t>
+          <t xml:space="preserve">        cell = ws.cell(row=row_idx, column=col_idx)</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>readme["A6"] = "Filters applied only to these columns:"</t>
+          <t xml:space="preserve">        if not cell.value or str(cell.value).strip() == "":</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>readme["A7"] = ", ".join(filter_cols)</t>
+          <t xml:space="preserve">            cell.fill = RED</t>
         </is>
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>readme["A9"] = "🛠 How to filter by partial match in Excel:"</t>
-        </is>
-      </c>
+      <c r="A68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>readme["A10"] = (</t>
+          <t># ─── Step 5: README Sheet ─────────────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "1. Click the filter dropdown on the column header (e.g., Sun or Characteristics)."</t>
+          <t>readme = wb.create_sheet("README")</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>)</t>
+          <t>readme.sheet_properties.tabColor = "A9A9A9"</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>readme["A11"] = "2. Choose 'Text Filters' &gt; 'Contains...'"</t>
+          <t>readme.column_dimensions["A"].width = 100</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>readme["A12"] = "3. Type a partial term (e.g., 'shade', 'yellow') and click OK."</t>
+          <t>readme["A1"] = "🌿 Plant Database Export: Excel Legend and Process Notes"</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>readme["A13"] = "💡 Use this to find plants matching conditions across categories."</t>
+          <t>readme["A3"] = "Legend:"</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>readme["A15"] = "📄 https://github.com/InfusedChooch/Plants"</t>
+          <t>readme["A4"] = "🔴 Red: Missing value (empty cell)"</t>
         </is>
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="inlineStr"/>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>readme["A6"] = "Filters applied only to these columns:"</t>
+        </is>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t># ─── Step 6: Script Version Info ──────────────────────────────────────────</t>
+          <t>readme["A7"] = ", ".join(filter_cols)</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>script_descriptions = {</t>
+          <t>readme["A9"] = "🛠 How to filter by partial match in Excel:"</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "PDFScraper.py": "Extracts plant data from the PDF guide",</t>
+          <t>readme["A10"] = (</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "GetLinks.py": "Finds official MBG &amp; WF URLs for each plant",</t>
+          <t xml:space="preserve">    "1. Click the filter dropdown on the column header (e.g., Sun or Characteristics)."</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "FillMissingData.py": "Populates missing fields using those links",</t>
+          <t>)</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "TestLinks.py": "Validates that all stored links return a live page",</t>
+          <t>readme["A11"] = "2. Choose 'Text Filters' &gt; 'Contains...'"</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t xml:space="preserve">    "Excelify2.py": "Creates formatted Excel output with filters &amp; highlights",</t>
+          <t>readme["A12"] = "3. Type a partial term (e.g., 'shade', 'yellow') and click OK."</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>}</t>
+          <t>readme["A13"] = "💡 Use this to find plants matching conditions across categories."</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>row_start = readme.max_row + 2</t>
+          <t>readme["A15"] = "📄 https://github.com/InfusedChooch/Plants"</t>
         </is>
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>readme[f"A{row_start}"] = "📁 Script Version Info (Last Modified):"</t>
-        </is>
-      </c>
+      <c r="A86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>for i, (filename, description) in enumerate(</t>
+          <t># ─── Step 6: Script Version Info ──────────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t xml:space="preserve">    script_descriptions.items(), start=row_start + 1</t>
+          <t>script_descriptions = {</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>):</t>
+          <t xml:space="preserve">    "PDFScraper.py": "Extracts plant data from the PDF guide",</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t xml:space="preserve">    path = BASE / filename</t>
+          <t xml:space="preserve">    "GetLinks.py": "Finds official MBG &amp; WF URLs for each plant",</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if path.exists():</t>
+          <t xml:space="preserve">    "FillMissingData.py": "Populates missing fields using those links",</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t xml:space="preserve">        modified = datetime.fromtimestamp(path.stat().st_mtime).strftime(</t>
+          <t xml:space="preserve">    "TestLinks.py": "Validates that all stored links return a live page",</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t xml:space="preserve">            "%Y-%m-%d %H:%M"</t>
+          <t xml:space="preserve">    "Excelify2.py": "Creates formatted Excel output with filters &amp; highlights",</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t xml:space="preserve">        )</t>
+          <t>}</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → {modified}    {description}"</t>
+          <t>row_start = readme.max_row + 2</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t xml:space="preserve">    else:</t>
+          <t>readme[f"A{row_start}"] = "📁 Script Version Info (Last Modified):"</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → MISSING        {description}"</t>
+          <t>for i, (filename, description) in enumerate(</t>
         </is>
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="inlineStr"/>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    script_descriptions.items(), start=row_start + 1</t>
+        </is>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t># ─── Step 7: Append pip requirements ──────────────────────────────────────</t>
+          <t>):</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>req_path = BASE / "requirements.txt"</t>
+          <t xml:space="preserve">    path = BASE / filename</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>readme_row = readme.max_row + 2</t>
+          <t xml:space="preserve">    if path.exists():</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>readme[f"A{readme_row}"] = "📦 Required Python Packages:"</t>
+          <t xml:space="preserve">        modified = datetime.fromtimestamp(path.stat().st_mtime).strftime(</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>try:</t>
+          <t xml:space="preserve">            "%Y-%m-%d %H:%M"</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t xml:space="preserve">    lines = req_path.read_text(encoding="utf-8").splitlines()</t>
+          <t xml:space="preserve">        )</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for i, line in enumerate(lines, start=readme_row + 1):</t>
+          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → {modified}    {description}"</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t xml:space="preserve">        if line.strip() and not line.strip().startswith("#"):</t>
+          <t xml:space="preserve">    else:</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t xml:space="preserve">            readme[f"A{i}"] = line.strip()</t>
+          <t xml:space="preserve">        readme[f"A{i}"] = f"{filename:&lt;24} → MISSING        {description}"</t>
         </is>
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>except Exception as e:</t>
-        </is>
-      </c>
+      <c r="A108" t="inlineStr"/>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t xml:space="preserve">    readme[f"A{readme_row + 1}"] = f"⚠️ Error reading requirements.txt: {e}"</t>
+          <t># ─── Step 7: Append pip requirements ──────────────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="inlineStr"/>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>req_path = BASE / "requirements.txt"</t>
+        </is>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t># ─── Step 8: Embed Black-styled script content ─────────────────────────────</t>
+          <t>readme_row = readme.max_row + 2</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>for script_name in script_descriptions:</t>
+          <t>readme[f"A{readme_row}"] = "📦 Required Python Packages:"</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t xml:space="preserve">    path = BASE / script_name</t>
+          <t>try:</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t xml:space="preserve">    if not path.exists():</t>
+          <t xml:space="preserve">    lines = req_path.read_text(encoding="utf-8").splitlines()</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t xml:space="preserve">        continue</t>
+          <t xml:space="preserve">    for i, line in enumerate(lines, start=readme_row + 1):</t>
         </is>
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="inlineStr"/>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        if line.strip() and not line.strip().startswith("#"):</t>
+        </is>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t xml:space="preserve">    with open(path, "r", encoding="utf-8") as f:</t>
+          <t xml:space="preserve">            readme[f"A{i}"] = line.strip()</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t xml:space="preserve">        raw_code = f.read()</t>
+          <t>except Exception as e:</t>
         </is>
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="inlineStr"/>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    readme[f"A{readme_row + 1}"] = f"⚠️ Error reading requirements.txt: {e}"</t>
+        </is>
+      </c>
     </row>
     <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    try:</t>
-        </is>
-      </c>
+      <c r="A120" t="inlineStr"/>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t xml:space="preserve">        formatted_code = black.format_str(raw_code, mode=black.Mode())</t>
+          <t># ─── Step 8: Embed Black-styled script content ─────────────────────────────</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t xml:space="preserve">    except Exception:</t>
+          <t>for script_name in script_descriptions:</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t xml:space="preserve">        formatted_code = raw_code</t>
+          <t xml:space="preserve">    path = BASE / script_name</t>
         </is>
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="inlineStr"/>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    if not path.exists():</t>
+        </is>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws = wb.create_sheet(script_name)</t>
+          <t xml:space="preserve">        continue</t>
         </is>
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    ws.column_dimensions["A"].width = 120</t>
-        </is>
-      </c>
+      <c r="A126" t="inlineStr"/>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws["A1"] = "```python"</t>
+          <t xml:space="preserve">    with open(path, "r", encoding="utf-8") as f:</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t xml:space="preserve">    for i, line in enumerate(formatted_code.splitlines(), start=2):</t>
+          <t xml:space="preserve">        raw_code = f.read()</t>
         </is>
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="inlineStr">
-        <is>
-          <t xml:space="preserve">        ws[f"A{i}"] = line</t>
-        </is>
-      </c>
+      <c r="A129" t="inlineStr"/>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t xml:space="preserve">    ws[f"A{i+1}"] = "```"</t>
+          <t xml:space="preserve">    try:</t>
         </is>
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="inlineStr"/>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        formatted_code = black.format_str(raw_code, mode=black.Mode())</t>
+        </is>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t># ─── Step 9: Import README.md as its own tab ──────────────────────────────</t>
+          <t xml:space="preserve">    except Exception:</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>readme_md_path = BASE / "README.md"</t>
+          <t xml:space="preserve">        formatted_code = raw_code</t>
         </is>
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="inlineStr">
-        <is>
-          <t>if readme_md_path.exists():</t>
-        </is>
-      </c>
+      <c r="A134" t="inlineStr"/>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t xml:space="preserve">    readme_full = wb.create_sheet("README_full")</t>
+          <t xml:space="preserve">    ws = wb.create_sheet(script_name)</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t xml:space="preserve">    readme_full.column_dimensions["A"].width = 120</t>
+          <t xml:space="preserve">    ws.column_dimensions["A"].width = 120</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t xml:space="preserve">    with readme_md_path.open("r", encoding="utf-8") as f:</t>
+          <t xml:space="preserve">    ws["A1"] = "```python"</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t xml:space="preserve">        for i, line in enumerate(f, start=1):</t>
+          <t xml:space="preserve">    for i, line in enumerate(formatted_code.splitlines(), start=2):</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t xml:space="preserve">            readme_full[f"A{i}"] = line.rstrip("\n")</t>
+          <t xml:space="preserve">        ws[f"A{i}"] = line</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>else:</t>
+          <t xml:space="preserve">    ws[f"A{i+1}"] = "```"</t>
         </is>
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="inlineStr">
-        <is>
-          <t xml:space="preserve">    print("⚠️ README.md not found. Skipping README_full tab.")</t>
-        </is>
-      </c>
+      <c r="A141" t="inlineStr"/>
     </row>
     <row r="142">
-      <c r="A142" t="inlineStr"/>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t># ─── Step 9: Import README.md as its own tab ──────────────────────────────</t>
+        </is>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t># ─── Step 10: Save Excel ─────────────────────────────────────────────────</t>
+          <t>readme_md_path = BASE / "README.md"</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>wb.save(XLSX_FILE)</t>
+          <t>if readme_md_path.exists():</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>print(f"📘 Final Excel saved → {XLSX_FILE}")</t>
+          <t xml:space="preserve">    readme_full = wb.create_sheet("README_full")</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    readme_full.column_dimensions["A"].width = 120</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    with readme_md_path.open("r", encoding="utf-8") as f:</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t xml:space="preserve">        for i, line in enumerate(f, start=1):</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t xml:space="preserve">            readme_full[f"A{i}"] = line.rstrip("\n")</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>else:</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    print("⚠️ README.md not found. Skipping README_full tab.")</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr"/>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t># ─── Step 10: Save Excel ─────────────────────────────────────────────────</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>wb.save(XLSX_FILE)</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>print(f"📘 Final Excel saved → {XLSX_FILE}")</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
         <is>
           <t>```</t>
         </is>
